--- a/app/static/csv/for_participant.xlsx
+++ b/app/static/csv/for_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76FF3E3-43D1-439D-B11A-201BD4FE2BA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1A086-733C-4127-BA16-2A20330BB937}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>tag</t>
   </si>
@@ -40,12 +40,6 @@
     <t>How can I participate?</t>
   </si>
   <si>
-    <t>Step 1. Read the detailed information sheet</t>
-  </si>
-  <si>
-    <t>Step 2. Register &amp; confirm your consent</t>
-  </si>
-  <si>
     <t>li1</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>li3</t>
   </si>
   <si>
-    <t>Step 3. Install the</t>
-  </si>
-  <si>
     <t>h12</t>
   </si>
   <si>
@@ -82,21 +73,9 @@
     <t>p2</t>
   </si>
   <si>
-    <t>Please note that this study is only open to smartphones running on Android</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hoe kan ik deelnemen? </t>
   </si>
   <si>
-    <t>Stap 1. Lees het gedetailleerde informatieblad  </t>
-  </si>
-  <si>
-    <t>Stap 2. Registreer &amp; bevestig uw toestemming </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stap 3. Installeer de </t>
-  </si>
-  <si>
     <t xml:space="preserve">Wat moet ik doen tijdens het onderzoek?   </t>
   </si>
   <si>
@@ -127,9 +106,6 @@
     <t>p4</t>
   </si>
   <si>
-    <t>Cognitive Psychology Unit, Leiden University</t>
-  </si>
-  <si>
     <t>p5</t>
   </si>
   <si>
@@ -142,13 +118,6 @@
     <t>Touchscreen-gedrag en hersenfuncties gedurende de levensloop</t>
   </si>
   <si>
-    <t>Locatie: Sectie Cognitieve Psychologie, Universiteit Leiden</t>
-  </si>
-  <si>
-    <t>Geachte deelnemer,
-Bedankt dat u overweegt deel te nemen aan het onderzoek naar verandering van hersenen en gedrag met leeftijd. Dit onderzoek bestaat uit twee delen voor wat betreft de uitgevoerde tests en de fysieke locatie. Eén deel wordt online uitgevoerd en het andere deel in het laboratorium. alleen het online onderdeel of zowel het laboratorium onderdeel ALS het online onderdeel We leggen graag de details van het onderzoek uit, maar onthoud alstublieft dat het niet verplicht is om deel te nemen aan dit onderzoek en dat u zich op elk moment kan terugtrekken en ons gedurende het hele onderzoek vragen kunt stellen. Er is, voor zover bekend, geen medische voordeel verbonden aan deelname aan deze experimenten. We zouden het waarderen als u dit document zorgvuldig doorleest voordat u besluit om deel te nemen, aangezien het veel tijd kost om het onderzoek voor te bereiden en uit te voeren. De eventuele vergoeding voor deelname aan het onderzoek is afhankelijk van uw deelname.</t>
-  </si>
-  <si>
     <t>h15</t>
   </si>
   <si>
@@ -164,13 +133,6 @@
     <t>Purpose of this study</t>
   </si>
   <si>
-    <t>This study is designed to capture the behavioral and cognitive changes that occur with normal/healthy aging. The targeted period of observation is three years but if the study conditions allow, you may voluntarily extend your participation. To capture the behavioral changes, we shall exploit day-to-day smartphone and/or tablet touchscreen data logs – which will remain active throughout the entire duration of the study. These logs will enable us to capture for instance how your speed of performance on the touchscreen alters with age. The study further exploits online cognitive tests conducted at a rate of once a month through the entire study period. If you participate in the recording of brain activity (optional), you will additionally spend time in and around the laboratory using your own smartphone while we capture the brain signals. These sessions will be conducted at the rate of approximately once a year through the study period. Recording brain activity is without risk: it concerns a so-called electro-encephalogram, better known as EES. From this rich source of information we expect to derive how your behavior alters with age and how the brain contributes to these changes</t>
-  </si>
-  <si>
-    <t>Dear Participant,
-    Thank you for considering to participate in our study of how brain and behavior change with age. This study has two parts in terms of the tests conducted and physical location. One part is conducted online and the other part is conducted in the laboratory. You may choose to participate in the online part only or both the laboratory AND online parts . While we look forward to explaining the details of the experiment please note that it is not mandatory to participate in this study, you can choose to withdraw at any time and you can ask us further questions through the entire study. There is no known medical benefit of participating in these experiments. As any remuneration associated with the study depends on your participation and as it takes considerable time to prepare and conduct these experiments, we would much appreciate that you carefully read this document before committing to our study</t>
-  </si>
-  <si>
     <t>h16</t>
   </si>
   <si>
@@ -192,9 +154,6 @@
     <t>Onderzoekslocatie</t>
   </si>
   <si>
-    <t>Dit onderzoek vindt online plaats, en als u wilt kunt u er ook voor kiezen deel te nemen aan de metingen in het laboratorium van de Universiteit Leiden (Instituut Psychologie, Wassenaarseweg 52).</t>
-  </si>
-  <si>
     <t>Communicatie en gecodeerde gegevensverzameling</t>
   </si>
   <si>
@@ -210,9 +169,6 @@
     <t>p8</t>
   </si>
   <si>
-    <t>This study occurs online, and if you choose you can additionally participate in the laboratory-based measures conducted at Leiden University (Institute of Psychology, Wassenaarseweg 52).</t>
-  </si>
-  <si>
     <t>h18</t>
   </si>
   <si>
@@ -258,9 +214,6 @@
     <t>li_online_5</t>
   </si>
   <si>
-    <t>Our online platform (agestudy.nl- under construction) will present a range of short questionnaires and tests. The objective of these tests is summarized here.</t>
-  </si>
-  <si>
     <t>Demographic information using a questionnaire including age (in years and months) and gender.</t>
   </si>
   <si>
@@ -276,9 +229,6 @@
     <t>Task switching. We will evaluate your ability to switch between two tasks thatyou perform in parallel. In this task you are instructed toidentify a specific pattern of letters vs. numbers.</t>
   </si>
   <si>
-    <t>Ons online platform (agestudy.nl - nu nog in opbouw) zal een aantal korte vragenlijsten en tests aanbieden. Het doel van deze tests wordt hier samengevat</t>
-  </si>
-  <si>
     <t>Demografische informatie met behulp van een vragenlijst inclusief leeftijd (in aantal jaar en maanden) en geslacht.</t>
   </si>
   <si>
@@ -414,9 +364,6 @@
     <t>De metingen in het laboratorium</t>
   </si>
   <si>
-    <t>EEG: Dit is een methode om de hersenactiviteit te meten, waarbij zwakke elektrische signalen die de hersenen produceren met behulp van elektroden op de hoofdhuid worden geregistreerd. De methode wordt niet-invasief genoemd, wat in dit verband inhoudt dat alle metingen vanaf de buitenkant van uw hoofd kunnen worden verricht. Tijdens deze metingen wordt een aantal elektroden (tussen 32 - 64) op de hoofdhuid geplaatst om de hersenactiviteit te meten terwijl u bepaalde taken uitvoert, zoals reageren op een geluidstoon die via een koptelefoon wordt afgespeeld of aanraking van de vingertoppen met behulp van kleine magneten. Tijdens deze metingen zullen we u ook vragen om uw eigen smartphone te gebruiken om de hersensignalen te registreren die optreden in samenhang met het gebruik van de telefoon dat ook met de achtergrond-App wordt geregistreerd. Ter voorbereiding op deze metingen moet u aankomen met gewassen en haar dat bij voorkeur een paar uur voor aanvang van het experiment al is gedroogd. Verder zullen we de huid waar de EEG-elektroden worden aangebracht vooraf reinigen met medische alcohol. Tijdens de EEG-sessie worden de volgende extra gegevens verzameld: bewegingssensormetingen van de armen en handen en een drie-dimensionele opname van de vorm van uw hoofd met de EEG-elektrode-locaties. Tijdens deze 3 d-scan zullen we uw gezicht bedekken met een medisch wegwerpmasker.</t>
-  </si>
-  <si>
     <t>qMCI: Deze korte - 5 min - vragenlijst is bedoeld om een globaal beeld te krijgen van uw mentale functioneringop de dag van het EEG-experiment of wanneer u ons in Leiden bezoekt voor de uitbetaling.</t>
   </si>
   <si>
@@ -433,10 +380,6 @@
   </si>
   <si>
     <t>In laboratory measures</t>
-  </si>
-  <si>
-    <t>EEG: This is a method of measuring brain activity that scans for the small electrical signal changes generated by the brain and detectable on the scalp using specialized electrodes. The method is referred to as non-invasive, which in this situation means that all recordings can be taking place from the outside of the head. During these measures, a number of electrodes (between 32 – 64) will be placed on the scalp to record brain activity as you perform certain behavioral tasks such as respond to a sound tone delivered through earphones or touch of the finger tips using tiny magnets. During these measures, we shall also instruct you to use your own smartphone to capture the corresponding brain signals with the background App running to capture the phone behavior. In preparation for these measurements, you would need to
-arrive with your hair washed and dried; preferably dried a few hours before the experiment begins. Furthermore, we shall clean the skin areas connecting with the EEG electrodes using medical-grade alcohol. During the EEG session, the following additional data will be gathered: movement sensor recordings from the arms and hands and the 3 d model of your scalp with the EEG electrode locations. During the 3 d scanning to create your scalp model we will cover your face using a disposable medical mask.</t>
   </si>
   <si>
     <t>qMCI: This short – 5 min – questionnaire will access your rough mental status on the day of the EEG experimentation or cash collection when you visit us in Leiden.</t>
@@ -512,9 +455,6 @@
     <t>Vergoeding</t>
   </si>
   <si>
-    <t>Alle vergoedingen worden contant betaald. Ten eerste, om vergoeding te ontvangen moet u kunnen reizen naar de Wassenaarseweg 52, Universiteit Leiden</t>
-  </si>
-  <si>
     <t>p21_u</t>
   </si>
   <si>
@@ -539,9 +479,6 @@
     <t>Compensation</t>
   </si>
   <si>
-    <t>All compensation is paid in cash. Firstly, to receive compensation you must be able to travel to Wassenaarseweg 52, Leiden University</t>
-  </si>
-  <si>
     <t>You can also participate in this study without any compensation. At the time of enrolment, we will clearly indicate if compensation is possible.</t>
   </si>
   <si>
@@ -776,18 +713,6 @@
     <t>Lees meer</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 1. Launch the TapCounter App every few days to keep it running for 3 years </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 2. Perform online tasks that takes just about 5 minutes a month for 3 years </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 3.  Inform us of any major life events using the TapCounter App for 3 years  </t>
-  </si>
-  <si>
-    <t>Task 4 (Optional). Come to the laboratory for Brain (EEG) measurements once a year for 3 years  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Taak 1. Open de TapCounter App om de paar dagen voor 3 jaar om het actief te houden.  </t>
   </si>
   <si>
@@ -797,14 +722,81 @@
     <t xml:space="preserve">Taak 3.  Breng ons op de hoogte van belangrijke gebeurtenissen in uw leven voor 3 jaar met behulp van de TapCounter App.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Taak 4 (optioneel). Kom naar het laboratorium voor hersenmetingen (EGG) eenmaal per jaar gedurende 3 jaar. </t>
+    <t>Task 1. Launch the TapCounter App every few days to keep it running for 3 years.</t>
+  </si>
+  <si>
+    <t>Task 3. Inform us of any major life events you have in the 3 years that you are using the TapCounter App.</t>
+  </si>
+  <si>
+    <t>Please note that this study is only open to smartphones running on Android.</t>
+  </si>
+  <si>
+    <t>Our online platform will present a range of short questionnaires and tests. The objective of these tests is summarized here.</t>
+  </si>
+  <si>
+    <t>Ons online platform zal een aantal korte vragenlijsten en tests aanbieden. Het doel van deze tests wordt hier samengevat</t>
+  </si>
+  <si>
+    <t>Next to the research data that are being collected to answer the research questions, a number of additional personal data will be collected in the context of the payout of participant compensation (Address, IBAN bank account number and registered name for this bank account). These personal data will be saved separately from the research data and will be shared with the financial administration of Leiden University, who will pass this information on to the Tax Department. The University is legally obliged to report the participant compensation to the Tax Department. Whether or not the Tax Department will make you pay taxes on these cash payments, will depend on your personal situation.</t>
+  </si>
+  <si>
+    <t>Naast de voor het beantwoorden van de onderzoeksvragen verzamelde gegevens zullen tevens een aantal persoonsgegevens worden verzameld in het kader van de uitbetaling van proefpersoongelden voor het onderzoek (Adres, IBAN rekeningnummer en Tenaamstelling van dit rekeningnummer). Deze persoonsgegevens zullen apart van de onderzoeksdata worden opgeslagen en gedeeld met de financiële administratie van de Universiteit Leiden, die deze informatie door zal geven aan de Belastingdienst. De Universiteit is wettelijk verplicht aangifte te doen van de vergoeding die u ontvangt bij de Belastingdienst. Of de Belastingdienst belasting zal heffen over deze betaling, hangt af van uw persoonlijke situatie.</t>
+  </si>
+  <si>
+    <t>Step 3. Register &amp; confirm your consent</t>
+  </si>
+  <si>
+    <t>Stap 3. Registreer &amp; bevestig uw toestemming </t>
+  </si>
+  <si>
+    <t>Task 2. Perform online tasks that take just about 5 minutes for 3 years.</t>
+  </si>
+  <si>
+    <t>Thank you for considering to participate in our study of how brain and behavior change with age. This study has two parts in terms of the tests conducted and physical location. One part is conducted online and the other part is conducted in the laboratory. You may choose to participate in the online part only or both the laboratory AND online parts. While we look forward to explaining the details of the experiment please note that it is not mandatory to participate in this study, you can choose to withdraw at any time and you can ask us further questions through the entire study. There is no known medical benefit of participating in these experiments. As any remuneration associated with the study depends on your participation and as it takes considerable time to prepare and conduct these experiments, we would much appreciate that you carefully read this document before committing to our study.</t>
+  </si>
+  <si>
+    <t>Bedankt dat u overweegt deel te nemen aan het onderzoek naar verandering van hersenen en gedrag met leeftijd. Dit onderzoek bestaat uit twee delen voor wat betreft de uitgevoerde tests en de fysieke locatie. Eén deel wordt online uitgevoerd en het andere deel in het laboratorium. U mag kiezen deel te nemen aan alleen het online onderdeel of ZOWEL het laboratorium onderdeel ALS het online onderdeel. We leggen graag de details van het onderzoek uit, maar onthoud alstublieft dat het niet verplicht is om deel te nemen aan dit onderzoek en dat u zich op elk moment kan terugtrekken en ons gedurende het hele onderzoek vragen kunt stellen. Er is, voor zover bekend, geen medische voordeel verbonden aan deelname aan deze experimenten. We zouden het waarderen als u dit document zorgvuldig doorleest voordat u besluit om deel te nemen, aangezien het veel tijd kost om het onderzoek voor te bereiden en uit te voeren. De eventuele vergoeding voor deelname aan het onderzoek is afhankelijk van uw deelname.</t>
+  </si>
+  <si>
+    <t>This study is designed to capture the behavioral and cognitive changes that occur with normal/healthy aging. The targeted period of observation is three years but if the study conditions allow, you may voluntarily extend your participation. To capture the behavioral changes, we shall exploit day-to-day smartphone and/or tablet touchscreen data logs – which will remain active throughout the entire duration of the study. These logs will enable us to capture for instance how your speed of performance on the touchscreen alters with age. The study further exploits online cognitive tests conducted at a rate of once a month through the entire study period. If you participate in the recording of brain activity (optional), you will additionally spend time in and around the laboratory using your own smartphone while we capture the brain signals. These sessions will be conducted at the rate of approximately once a year through the study period. Recording brain activity is without risk: it concerns a so-called electro-encephalogram, better known as EEG. From this rich source of information we expect to derive how your behavior alters with age and how the brain contributes to these changes</t>
+  </si>
+  <si>
+    <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: Dit is een methode om de hersenactiviteit te meten, waarbij zwakke elektrische signalen die de hersenen produceren met behulp van elektroden op de hoofdhuid worden geregistreerd. De methode wordt niet-invasief genoemd, wat in dit verband inhoudt dat alle metingen vanaf de buitenkant van uw hoofd kunnen worden verricht. Tijdens deze metingen wordt een aantal elektroden (tussen 32 - 64) op de hoofdhuid geplaatst om de hersenactiviteit te meten terwijl u bepaalde taken uitvoert, zoals reageren op een geluidstoon die via een koptelefoon wordt afgespeeld of aanraking van de vingertoppen met behulp van kleine magneten. Tijdens deze metingen zullen we u ook vragen om uw eigen smartphone te gebruiken om de hersensignalen te registreren die optreden in samenhang met het gebruik van de telefoon dat ook met de achtergrond-App wordt geregistreerd. Ter voorbereiding op deze metingen moet u aankomen met gewassen en haar dat bij voorkeur een paar uur voor aanvang van het experiment al is gedroogd. Verder zullen we de huid waar de EEG-elektroden worden aangebracht vooraf reinigen met medische alcohol. Tijdens de EEG-sessie worden de volgende extra gegevens verzameld: bewegingssensormetingen van de armen en handen en een drie-dimensionele opname van de vorm van uw hoofd met de EEG-elektrode-locaties. Tijdens deze 3 d-scan zullen we uw gezicht bedekken met een medisch wegwerpmasker.</t>
+  </si>
+  <si>
+    <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: This is a method of measuring brain activity that scans for the small electrical signal changes generated by the brain and detectable on the scalp using specialized electrodes. The method is referred to as non-invasive, which in this situation means that all recordings can be taking place from the outside of the head. During these measures, a number of electrodes (between 32 – 64) will be placed on the scalp to record brain activity as you perform certain behavioral tasks such as respond to a sound tone delivered through earphones or touch of the finger tips using tiny magnets. During these measures, we shall also instruct you to use your own smartphone to capture the corresponding brain signals with the background App running to capture the phone behavior. In preparation for these measurements, you would need to
+arrive with your hair washed and dried; preferably dried a few hours before the experiment begins. Furthermore, we shall clean the skin areas connecting with the EEG electrodes using medical-grade alcohol. During the EEG session, the following additional data will be gathered: movement sensor recordings from the arms and hands and the 3 d model of your scalp with the EEG electrode locations. During the 3 d scanning to create your scalp model we will cover your face using a disposable medical mask.</t>
+  </si>
+  <si>
+    <t>Step 1. Read the detailed &lt;a href=/for_participant#start_info&gt;information sheet&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Step 2. Install the &lt;a href=/about_app&gt;App&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Stap 2. Installeer de &lt;a href=/about_app&gt;App&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stap 1. Lees het gedetailleerde &lt;a href=/for_participant#start_info&gt;informatieblad&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Dit onderzoek vindt online plaats, en als u wilt kunt u er ook voor kiezen deel te nemen aan de metingen in het laboratorium van de Universiteit Leiden (Instituut Psychologie, &lt;a href="https://www.universiteitleiden.nl/locaties/pieter-de-la-court#tab-1 target=_blank_"&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>Task 4 (Optional). Come to the laboratory for Brain (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) measurements once a year for 3 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taak 4 (optioneel). Kom naar het laboratorium voor hersenmetingen (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) eenmaal per jaar gedurende 3 jaar. </t>
+  </si>
+  <si>
+    <t>This study occurs online, and if you choose you can additionally participate in the laboratory-based measures conducted at Leiden University (Institute of Psychology, &lt;a href="https://www.universiteitleiden.nl/en/locations/pieter-de-la-court" target=_blank_&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,12 +930,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1311,18 +1297,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1680,12 +1665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1708,935 +1694,1157 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>248</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>84</v>
+        <v>236</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="405" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>137</v>
+        <v>115</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>170</v>
+        <v>142</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>176</v>
+        <v>155</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" t="s">
         <v>183</v>
       </c>
-      <c r="B67" t="s">
-        <v>203</v>
-      </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
+    <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571203FD-96FA-4C52-A5CD-CF8F121E2059}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/static/csv/for_participant.xlsx
+++ b/app/static/csv/for_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1A086-733C-4127-BA16-2A20330BB937}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D96308-D7CC-440D-AFE6-C9552B0B697F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="for_participant" sheetId="1" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>p11</t>
   </si>
   <si>
-    <t>Online vragenlijsten en metinge</t>
-  </si>
-  <si>
     <t>li_online_1</t>
   </si>
   <si>
@@ -214,42 +211,9 @@
     <t>li_online_5</t>
   </si>
   <si>
-    <t>Demographic information using a questionnaire including age (in years and months) and gender.</t>
-  </si>
-  <si>
-    <t>Smartphone usage questionnaire. In this questionnaire, you will be asked about how you operate and use your smartphone.</t>
-  </si>
-  <si>
-    <t>Quality of life questionnaire. In this questionnaire, you will be asked about your day to day living conditions.</t>
-  </si>
-  <si>
-    <t>Memory tests. We will use two tests where you recall recently presented stimuli – such as a letter or pattern. These tests serve to assess your memory and also your general perceptual and motoric functions.</t>
-  </si>
-  <si>
-    <t>Task switching. We will evaluate your ability to switch between two tasks thatyou perform in parallel. In this task you are instructed toidentify a specific pattern of letters vs. numbers.</t>
-  </si>
-  <si>
-    <t>Demografische informatie met behulp van een vragenlijst inclusief leeftijd (in aantal jaar en maanden) en geslacht.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Smartphonegebruik vragenlijst. In deze vragenlijst wordt u gevraagd hoe u uw smartphone bedient en gebruikt.</t>
-  </si>
-  <si>
-    <t>Levenskwaliteit vragenlijst. In deze vragenlijst wordt u gevraagd naar uw dagelijkse leefomstandigheden.</t>
-  </si>
-  <si>
-    <t>Geheugentests. We gebruiken twee tests waarbij u zich recent gepresenteerde stimuli - zoals een letter of patroon – moet proberen te herinneren. Deze tests dienen om uw geheugen en ook uw algemene waarnemings- en motorische functies in kaart te brengen.</t>
-  </si>
-  <si>
-    <t>Taakwisseling. We meten uw vermogen om te wisselen tussen taken die u tegelijk uitvoert. Hierbij is de opdracht dat u letters of cijfers beoordeelt.</t>
-  </si>
-  <si>
     <t>Smartphone App operating in the background</t>
   </si>
   <si>
-    <t>Smartphone App die op de achtergrond actief i</t>
-  </si>
-  <si>
     <t>Er zal aan u gevraagd worden om een App (TapCounter) te installeren die ontworpen en geïmplementeerd is door een dochterinstituut van de Universiteit van Zürich QuantActions Ltd (Lausanne, Zwitserland). Deze App houdt uw gedrag op de achtergrond van de smartphone en/of tablet bij met behulp van een unieke deelnemerscode (zoals 138xxxiwhhwhh992ef). De volgende informatie wordt door de App verzameld en voorzien van de unieke deelnemerscode ter beschikking gesteld aan het onderzoeksteam:</t>
   </si>
   <si>
@@ -274,27 +238,12 @@
     <t>li_smartphone_7</t>
   </si>
   <si>
-    <t>De unieke deelnemerscode die door de App willekeurig wordt aangemaakt, bijvoorbeeld 138xxxiwhhwhh992ef.</t>
-  </si>
-  <si>
-    <t>De fabrikant en het model van de smartphone zoals SAMSUNG A10.</t>
-  </si>
-  <si>
-    <t>Het versienummer van het Android besturingssysteem version zoals versie 10.0.</t>
-  </si>
-  <si>
     <t>Globale locatie zoals in Leiden, Nederland (afgeronde positie-informatie)</t>
   </si>
   <si>
-    <t>Het tijdstip van elke aanraking van de touchscreen, zoals op 20 januari, 10u, 5m,10s,5ms.</t>
-  </si>
-  <si>
     <t>Het label van de App die in gebruik is zoals Facebook of Weer</t>
   </si>
   <si>
-    <t>Of uw telefoon in de portret- of landschapsmodus (that is, verticaal of horizontaal) wordt gebruikt.</t>
-  </si>
-  <si>
     <t>p12</t>
   </si>
   <si>
@@ -316,27 +265,15 @@
     <t>You will be asked to install an App (TapCounter) which is designed and implemented by a University of Zurich spinoff QuantActions Ltd (Lausanne, Switzerland). This App tracks your behavior on the smartphone and/or tablet in the background using a unique identifier (such as 138xxxiwhhwhh992ef). The following information is gathered by the App and made available to the research team associated with the unique identifier:</t>
   </si>
   <si>
-    <t>The unique identifier randomly generated by the App as in 138xxxiwhhwhh992ef.</t>
-  </si>
-  <si>
     <t>Manufacturer and model of the smartphone as in SAMSUNG A10</t>
   </si>
   <si>
-    <t>Android operating system version number as in version 10.0.</t>
-  </si>
-  <si>
-    <t>Rough location as in Leiden, Netherlands (rounded position information).</t>
-  </si>
-  <si>
     <t>The timestamp of the touchscreen touch as in 20th Jan 2020, 10h,5m,10s,5ms</t>
   </si>
   <si>
     <t>The label of the App in use as in Facebook or Weather</t>
   </si>
   <si>
-    <t>If your phone was used in the portrait or landscape mode (that is, vertical or horizontal).</t>
-  </si>
-  <si>
     <t>Please note that ‘5’ and ‘6’ enable us to derive more information such as tapping speed, adjusted according to the type of App in use.</t>
   </si>
   <si>
@@ -364,9 +301,6 @@
     <t>De metingen in het laboratorium</t>
   </si>
   <si>
-    <t>qMCI: Deze korte - 5 min - vragenlijst is bedoeld om een globaal beeld te krijgen van uw mentale functioneringop de dag van het EEG-experiment of wanneer u ons in Leiden bezoekt voor de uitbetaling.</t>
-  </si>
-  <si>
     <t>p16</t>
   </si>
   <si>
@@ -380,9 +314,6 @@
   </si>
   <si>
     <t>In laboratory measures</t>
-  </si>
-  <si>
-    <t>qMCI: This short – 5 min – questionnaire will access your rough mental status on the day of the EEG experimentation or cash collection when you visit us in Leiden.</t>
   </si>
   <si>
     <t>Data sharing and handling</t>
@@ -593,21 +524,6 @@
     <t>U kunt zich op elk moment terugtrekken. Om u terug te trekken uit het onderzoek, stuurt u eenvoudigweg een e-mail naar het onderzoeksteam. U hoeft ons geen redenen voor uw terugtrekking te geven, maar als u die opgeeft, zullen we de reden samen met de historische gegevens (gegevens van vóór de terugtrekking) vastleggen. Als u zich heeft aangemeld voor het onderzoek maar gedurende een periode van 1 jaar geen online testactiviteiten heeft uitgevoerd of niet heeft gecommuniceerd met het onderzoeksteam, zullen wij uw deelname vanaf die datum automatisch intrekken. Dit zijn de gevolgen van de intrekking:</t>
   </si>
   <si>
-    <t>U zult een schriftelijke bevestiging van de terugtrekking krijgen.</t>
-  </si>
-  <si>
-    <t>Uw e-mail en alle correspondentie worden verwijderd in afwachting van vergoeding.</t>
-  </si>
-  <si>
-    <t>Uw gegevens worden geanonimiseerd voor langdurige opslag, analyse en het delen van data.</t>
-  </si>
-  <si>
-    <t>U krijgt een vergoeding volgens het vastgestelde tarief als u tenminste 1 jaar hebt deelgenomen.</t>
-  </si>
-  <si>
-    <t>Alle gegevens die vóór het terugtrekken zijn verzameld worden niet gewist.</t>
-  </si>
-  <si>
     <t>Zoals vermeld in 'f', kunnen wij uw historische gegevens niet verwijderen, voornamelijk omdat de gegevens in meerdere tussenpozen worden verwerkt en de gedeeltelijke gegevens routinematig worden opgeslagen op lokale computers van de Universiteit Leiden na een complete anonimisering (door het verwijderen van de koppeling tussen e-mailadres en de deelnemerscode).</t>
   </si>
   <si>
@@ -653,27 +569,9 @@
     <t>As mentioned in ‘f’, we are unable to delete your historical data mainly as the data is intermittently processed and the partial data is routinely backed-up on local computers at Leiden University after true anonymization (by deletion of the email address to ID link).</t>
   </si>
   <si>
-    <t>All data collected prior to the withdrawal is not deleted.</t>
-  </si>
-  <si>
-    <t>You will get compensation according to the set rate if you have participated for at least 1 year.</t>
-  </si>
-  <si>
-    <t>Your data is rendered anonymous for long-term storage, analysis and distribution.</t>
-  </si>
-  <si>
-    <t>Any app data collected AFTER the withdrawal is deleted.</t>
-  </si>
-  <si>
     <t>You will get a written confirmation of the withdrawal</t>
   </si>
   <si>
-    <t>Your email and all correspondences are deleted pending compensation.</t>
-  </si>
-  <si>
-    <t>Alle app-gegevens die NA de terugtrekking zijn verzameld, worden gewist.</t>
-  </si>
-  <si>
     <t>Toestemming</t>
   </si>
   <si>
@@ -713,21 +611,6 @@
     <t>Lees meer</t>
   </si>
   <si>
-    <t xml:space="preserve">Taak 1. Open de TapCounter App om de paar dagen voor 3 jaar om het actief te houden.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taak 2. Voer online taken uit die slechts ongeveer 5 minuten per maand duren voor 3 jaar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taak 3.  Breng ons op de hoogte van belangrijke gebeurtenissen in uw leven voor 3 jaar met behulp van de TapCounter App.  </t>
-  </si>
-  <si>
-    <t>Task 1. Launch the TapCounter App every few days to keep it running for 3 years.</t>
-  </si>
-  <si>
-    <t>Task 3. Inform us of any major life events you have in the 3 years that you are using the TapCounter App.</t>
-  </si>
-  <si>
     <t>Please note that this study is only open to smartphones running on Android.</t>
   </si>
   <si>
@@ -749,9 +632,6 @@
     <t>Stap 3. Registreer &amp; bevestig uw toestemming </t>
   </si>
   <si>
-    <t>Task 2. Perform online tasks that take just about 5 minutes for 3 years.</t>
-  </si>
-  <si>
     <t>Thank you for considering to participate in our study of how brain and behavior change with age. This study has two parts in terms of the tests conducted and physical location. One part is conducted online and the other part is conducted in the laboratory. You may choose to participate in the online part only or both the laboratory AND online parts. While we look forward to explaining the details of the experiment please note that it is not mandatory to participate in this study, you can choose to withdraw at any time and you can ask us further questions through the entire study. There is no known medical benefit of participating in these experiments. As any remuneration associated with the study depends on your participation and as it takes considerable time to prepare and conduct these experiments, we would much appreciate that you carefully read this document before committing to our study.</t>
   </si>
   <si>
@@ -759,9 +639,6 @@
   </si>
   <si>
     <t>This study is designed to capture the behavioral and cognitive changes that occur with normal/healthy aging. The targeted period of observation is three years but if the study conditions allow, you may voluntarily extend your participation. To capture the behavioral changes, we shall exploit day-to-day smartphone and/or tablet touchscreen data logs – which will remain active throughout the entire duration of the study. These logs will enable us to capture for instance how your speed of performance on the touchscreen alters with age. The study further exploits online cognitive tests conducted at a rate of once a month through the entire study period. If you participate in the recording of brain activity (optional), you will additionally spend time in and around the laboratory using your own smartphone while we capture the brain signals. These sessions will be conducted at the rate of approximately once a year through the study period. Recording brain activity is without risk: it concerns a so-called electro-encephalogram, better known as EEG. From this rich source of information we expect to derive how your behavior alters with age and how the brain contributes to these changes</t>
-  </si>
-  <si>
-    <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: Dit is een methode om de hersenactiviteit te meten, waarbij zwakke elektrische signalen die de hersenen produceren met behulp van elektroden op de hoofdhuid worden geregistreerd. De methode wordt niet-invasief genoemd, wat in dit verband inhoudt dat alle metingen vanaf de buitenkant van uw hoofd kunnen worden verricht. Tijdens deze metingen wordt een aantal elektroden (tussen 32 - 64) op de hoofdhuid geplaatst om de hersenactiviteit te meten terwijl u bepaalde taken uitvoert, zoals reageren op een geluidstoon die via een koptelefoon wordt afgespeeld of aanraking van de vingertoppen met behulp van kleine magneten. Tijdens deze metingen zullen we u ook vragen om uw eigen smartphone te gebruiken om de hersensignalen te registreren die optreden in samenhang met het gebruik van de telefoon dat ook met de achtergrond-App wordt geregistreerd. Ter voorbereiding op deze metingen moet u aankomen met gewassen en haar dat bij voorkeur een paar uur voor aanvang van het experiment al is gedroogd. Verder zullen we de huid waar de EEG-elektroden worden aangebracht vooraf reinigen met medische alcohol. Tijdens de EEG-sessie worden de volgende extra gegevens verzameld: bewegingssensormetingen van de armen en handen en een drie-dimensionele opname van de vorm van uw hoofd met de EEG-elektrode-locaties. Tijdens deze 3 d-scan zullen we uw gezicht bedekken met een medisch wegwerpmasker.</t>
   </si>
   <si>
     <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: This is a method of measuring brain activity that scans for the small electrical signal changes generated by the brain and detectable on the scalp using specialized electrodes. The method is referred to as non-invasive, which in this situation means that all recordings can be taking place from the outside of the head. During these measures, a number of electrodes (between 32 – 64) will be placed on the scalp to record brain activity as you perform certain behavioral tasks such as respond to a sound tone delivered through earphones or touch of the finger tips using tiny magnets. During these measures, we shall also instruct you to use your own smartphone to capture the corresponding brain signals with the background App running to capture the phone behavior. In preparation for these measurements, you would need to
@@ -783,13 +660,136 @@
     <t>Dit onderzoek vindt online plaats, en als u wilt kunt u er ook voor kiezen deel te nemen aan de metingen in het laboratorium van de Universiteit Leiden (Instituut Psychologie, &lt;a href="https://www.universiteitleiden.nl/locaties/pieter-de-la-court#tab-1 target=_blank_"&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
   </si>
   <si>
-    <t>Task 4 (Optional). Come to the laboratory for Brain (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) measurements once a year for 3 years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taak 4 (optioneel). Kom naar het laboratorium voor hersenmetingen (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) eenmaal per jaar gedurende 3 jaar. </t>
-  </si>
-  <si>
     <t>This study occurs online, and if you choose you can additionally participate in the laboratory-based measures conducted at Leiden University (Institute of Psychology, &lt;a href="https://www.universiteitleiden.nl/en/locations/pieter-de-la-court" target=_blank_&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>qMCI: This short – 5 min – questionnaire will access your rough mental status on the day of the EEG experimentation when you visit us in Leiden.</t>
+  </si>
+  <si>
+    <t>Online vragenlijsten en metingen</t>
+  </si>
+  <si>
+    <t>Smartphone App die op de achtergrond actief is</t>
+  </si>
+  <si>
+    <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: Dit is een methode om de hersenactiviteit te meten, waarbij zwakke elektrische signalen die de hersenen produceren met behulp van elektroden op de hoofdhuid worden geregistreerd. De methode wordt niet-invasief genoemd, wat in dit verband inhoudt dat alle metingen vanaf de buitenkant van uw hoofd kunnen worden verricht. Tijdens deze metingen wordt een aantal elektroden (tussen 32 - 64) op de hoofdhuid geplaatst om de hersenactiviteit te meten terwijl u bepaalde taken uitvoert, zoals reageren op een geluidstoon die via een koptelefoon wordt afgespeeld of aanraking van de vingertoppen met behulp van kleine magneten. Tijdens deze metingen zullen we u ook vragen om uw eigen smartphone te gebruiken om de hersensignalen te registreren die optreden in samenhang met het gebruik van de telefoon dat ook met de achtergrond-App wordt geregistreerd. Ter voorbereiding op deze metingen moet u aankomen met gewassen haar dat bij voorkeur een paar uur voor aanvang van het experiment al is gedroogd. Verder zullen we de huid waar de EEG-elektroden worden aangebracht vooraf reinigen met medische alcohol. Tijdens de EEG-sessie worden de volgende extra gegevens verzameld: bewegingssensormetingen van de armen en handen en een drie-dimensionele opname van de vorm van uw hoofd met de EEG-elektrode-locaties. Tijdens deze 3 d-scan zullen we uw gezicht bedekken met een medisch wegwerpmasker.</t>
+  </si>
+  <si>
+    <t>qMCI: Deze korte - 5 min - vragenlijst is bedoeld om een globaal beeld te krijgen van uw mentale functionering op de dag van het EEG-experiment.</t>
+  </si>
+  <si>
+    <t>Taak 1. Open de TapCounter App om de paar dagen voor 3 jaar om het actief te houden</t>
+  </si>
+  <si>
+    <t>Taak 2. Voer online taken uit die slechts ongeveer 15 minuten per maand duren voor 3 jaar</t>
+  </si>
+  <si>
+    <t>Taak 3.  Breng ons op de hoogte van belangrijke gebeurtenissen in uw leven voor 3 jaar met behulp van de TapCounter App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taak 4 (optioneel). Kom naar het laboratorium voor hersenmetingen (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) eenmaal per jaar gedurende 3 jaar </t>
+  </si>
+  <si>
+    <t>Task 1. Launch the TapCounter App every few days to keep it running for 3 years</t>
+  </si>
+  <si>
+    <t>Task 2. Perform online tasks that take just about 15 minutes for 3 years</t>
+  </si>
+  <si>
+    <t>Task 3. Inform us of any major life events you have in the 3 years that you are using the TapCounter App</t>
+  </si>
+  <si>
+    <t>Task 4 (Optional). Come to the laboratory for Brain (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) measurements once a year for 3 years</t>
+  </si>
+  <si>
+    <t>Demographic information using a questionnaire including age (in years and months) and gender</t>
+  </si>
+  <si>
+    <t>Demografische informatie met behulp van een vragenlijst inclusief leeftijd (in aantal jaar en maanden) en geslacht</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smartphonegebruik vragenlijst. In deze vragenlijst wordt u gevraagd hoe u uw smartphone bedient en gebruikt</t>
+  </si>
+  <si>
+    <t>Levenskwaliteit vragenlijst. In deze vragenlijst wordt u gevraagd naar uw dagelijkse leefomstandigheden</t>
+  </si>
+  <si>
+    <t>Taakwisseling. We meten uw vermogen om te wisselen tussen taken die u tegelijk uitvoert. Hierbij is de opdracht dat u letters of cijfers beoordeelt</t>
+  </si>
+  <si>
+    <t>Geheugentests. We gebruiken twee tests waarbij u zich recent gepresenteerde stimuli - zoals een letter of patroon – moet proberen te herinneren. Deze tests dienen om uw geheugen en ook uw algemene waarnemings- en motorische functies in kaart te brengen</t>
+  </si>
+  <si>
+    <t>Task switching. We will evaluate your ability to switch between two tasks thatyou perform in parallel. In this task you are instructed toidentify a specific pattern of letters vs. numbers</t>
+  </si>
+  <si>
+    <t>Memory tests. We will use two tests where you recall recently presented stimuli – such as a letter or pattern. These tests serve to assess your memory and also your general perceptual and motoric functions</t>
+  </si>
+  <si>
+    <t>Quality of life questionnaire. In this questionnaire, you will be asked about your day to day living conditions</t>
+  </si>
+  <si>
+    <t>Smartphone usage questionnaire. In this questionnaire, you will be asked about how you operate and use your smartphone</t>
+  </si>
+  <si>
+    <t>The unique identifier randomly generated by the App as in 138xxxiwhhwhh992ef</t>
+  </si>
+  <si>
+    <t>De unieke deelnemerscode die door de App willekeurig wordt aangemaakt, bijvoorbeeld 138xxxiwhhwhh992ef</t>
+  </si>
+  <si>
+    <t>De fabrikant en het model van de smartphone zoals SAMSUNG A10</t>
+  </si>
+  <si>
+    <t>Het versienummer van het Android besturingssysteem version zoals versie 10.0</t>
+  </si>
+  <si>
+    <t>Het tijdstip van elke aanraking van de touchscreen, zoals op 20 januari, 10u, 5m,10s,5ms</t>
+  </si>
+  <si>
+    <t>Of uw telefoon in de portret- of landschapsmodus (dat wil zeggen, verticaal of horizontaal) wordt gebruikt</t>
+  </si>
+  <si>
+    <t>If your phone was used in the portrait or landscape mode (that is, vertical or horizontal)</t>
+  </si>
+  <si>
+    <t>Rough location as in Leiden, Netherlands (rounded position information)</t>
+  </si>
+  <si>
+    <t>Android operating system version number as in version 10.0</t>
+  </si>
+  <si>
+    <t>Any app data collected AFTER the withdrawal is deleted</t>
+  </si>
+  <si>
+    <t>Alle app-gegevens die NA de terugtrekking zijn verzameld, worden gewist</t>
+  </si>
+  <si>
+    <t>U zult een schriftelijke bevestiging van de terugtrekking krijgen</t>
+  </si>
+  <si>
+    <t>Uw e-mail en alle correspondentie worden verwijderd in afwachting van vergoeding</t>
+  </si>
+  <si>
+    <t>Uw gegevens worden geanonimiseerd voor langdurige opslag, analyse en het delen van data</t>
+  </si>
+  <si>
+    <t>U krijgt een vergoeding volgens het vastgestelde tarief als u tenminste 1 jaar hebt deelgenomen</t>
+  </si>
+  <si>
+    <t>Alle gegevens die vóór het terugtrekken zijn verzameld worden niet gewist</t>
+  </si>
+  <si>
+    <t>All data collected prior to the withdrawal is not deleted</t>
+  </si>
+  <si>
+    <t>You will get compensation according to the set rate if you have participated for at least 1 year</t>
+  </si>
+  <si>
+    <t>Your data is rendered anonymous for long-term storage, analysis and distribution</t>
+  </si>
+  <si>
+    <t>Your email and all correspondences are deleted pending compensation</t>
   </si>
 </sst>
 </file>
@@ -1665,17 +1665,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="53.5703125" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.54296875" customWidth="1"/>
+    <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1697,40 +1697,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1741,51 +1741,51 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1796,18 +1796,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1840,23 +1840,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1867,18 +1867,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1911,18 +1911,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1952,667 +1952,667 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>57</v>
       </c>
       <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>97</v>
       </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>101</v>
       </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>102</v>
       </c>
-      <c r="C39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>103</v>
       </c>
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>107</v>
       </c>
-      <c r="C44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C56" t="s">
         <v>112</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>119</v>
       </c>
-      <c r="C47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="405" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="B57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" t="s">
         <v>247</v>
       </c>
-      <c r="C48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>187</v>
       </c>
-      <c r="C63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>164</v>
-      </c>
-      <c r="B68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" t="s">
-        <v>226</v>
-      </c>
-      <c r="C73" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B85" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" t="s">
-        <v>213</v>
-      </c>
-      <c r="C75" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" t="s">
-        <v>215</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="C85" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B86" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>204</v>
-      </c>
-      <c r="B81" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="C86" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>208</v>
-      </c>
-      <c r="B83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>220</v>
-      </c>
-      <c r="B84" t="s">
-        <v>222</v>
-      </c>
-      <c r="C84" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>221</v>
-      </c>
-      <c r="B85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>227</v>
-      </c>
-      <c r="B86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2622,21 +2622,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
     <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
@@ -2814,24 +2799,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571203FD-96FA-4C52-A5CD-CF8F121E2059}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2847,4 +2830,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/static/csv/for_participant.xlsx
+++ b/app/static/csv/for_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D96308-D7CC-440D-AFE6-C9552B0B697F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D00082-E072-4680-8348-75DC92163D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,12 +626,6 @@
     <t>Naast de voor het beantwoorden van de onderzoeksvragen verzamelde gegevens zullen tevens een aantal persoonsgegevens worden verzameld in het kader van de uitbetaling van proefpersoongelden voor het onderzoek (Adres, IBAN rekeningnummer en Tenaamstelling van dit rekeningnummer). Deze persoonsgegevens zullen apart van de onderzoeksdata worden opgeslagen en gedeeld met de financiële administratie van de Universiteit Leiden, die deze informatie door zal geven aan de Belastingdienst. De Universiteit is wettelijk verplicht aangifte te doen van de vergoeding die u ontvangt bij de Belastingdienst. Of de Belastingdienst belasting zal heffen over deze betaling, hangt af van uw persoonlijke situatie.</t>
   </si>
   <si>
-    <t>Step 3. Register &amp; confirm your consent</t>
-  </si>
-  <si>
-    <t>Stap 3. Registreer &amp; bevestig uw toestemming </t>
-  </si>
-  <si>
     <t>Thank you for considering to participate in our study of how brain and behavior change with age. This study has two parts in terms of the tests conducted and physical location. One part is conducted online and the other part is conducted in the laboratory. You may choose to participate in the online part only or both the laboratory AND online parts. While we look forward to explaining the details of the experiment please note that it is not mandatory to participate in this study, you can choose to withdraw at any time and you can ask us further questions through the entire study. There is no known medical benefit of participating in these experiments. As any remuneration associated with the study depends on your participation and as it takes considerable time to prepare and conduct these experiments, we would much appreciate that you carefully read this document before committing to our study.</t>
   </si>
   <si>
@@ -693,9 +687,6 @@
     <t>Task 1. Launch the TapCounter App every few days to keep it running for 3 years</t>
   </si>
   <si>
-    <t>Task 2. Perform online tasks that take just about 15 minutes for 3 years</t>
-  </si>
-  <si>
     <t>Task 3. Inform us of any major life events you have in the 3 years that you are using the TapCounter App</t>
   </si>
   <si>
@@ -790,6 +781,15 @@
   </si>
   <si>
     <t>Your email and all correspondences are deleted pending compensation</t>
+  </si>
+  <si>
+    <t>Task 2. Perform online tasks that take just about 15 minutes per month for 3 years</t>
+  </si>
+  <si>
+    <t>Step 3. &lt;a href=/register&gt;Register&lt;/a&gt; &amp; confirm your consent</t>
+  </si>
+  <si>
+    <t>Stap 3.  &lt;a href=/register&gt;Registreer&lt;/a&gt; &amp; bevestig uw toestemming </t>
   </si>
 </sst>
 </file>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1702,10 +1702,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1713,10 +1713,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1724,10 +1724,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1746,10 +1746,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1757,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1768,10 +1768,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1779,10 +1779,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1850,10 +1850,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1872,7 +1872,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -1916,10 +1916,10 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1952,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1971,10 +1971,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1982,10 +1982,10 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1993,10 +1993,10 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2004,10 +2004,10 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2015,10 +2015,10 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2029,7 +2029,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -2048,10 +2048,10 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -2062,7 +2062,7 @@
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2070,10 +2070,10 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -2081,7 +2081,7 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -2095,7 +2095,7 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2114,10 +2114,10 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -2191,10 +2191,10 @@
         <v>93</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -2202,10 +2202,10 @@
         <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -2488,10 +2488,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -2502,7 +2502,7 @@
         <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -2510,10 +2510,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -2521,10 +2521,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -2532,10 +2532,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -2543,10 +2543,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">

--- a/app/static/csv/for_participant.xlsx
+++ b/app/static/csv/for_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D00082-E072-4680-8348-75DC92163D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FB46FE-5F27-4AF3-82D6-98235A9CA040}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,9 +416,6 @@
     <t>If participating in the online-only part of the study the compensation is 80 EUR spread over three years. If participating in the EEG experiments in addition, the compensation is 170 EUR spread over three years (under the assumption of 4 hours of participation per year). You may choose to collect your compensation once a year or wait until the end of the study. The annual targets of one test per month must be met to receive the compensation. Exceptions (for instance, missed tests due to illness or vacations) will have to be be explicitly approved by the research team.</t>
   </si>
   <si>
-    <t>The compensations are calculated based on the rate of 3.50 EUR per 30 min of online experimentation and 7.50 EUR per h for EEG experiments. Moreover, for the online tests (as they sometimes take only 10 min), an indicator will show you the compensation amount accumulated. For the online test, only a maximum of one test can be rewarded per month but you can choose to do more without any compensation.</t>
-  </si>
-  <si>
     <t>h25</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>In case volunteering for in lab measures: require mobility assistance</t>
   </si>
   <si>
-    <t>In case volunteering for in lab measures: you have highly sensitive skins</t>
-  </si>
-  <si>
     <t>You cannot easily access a desktop or laptop (public or private) computer</t>
   </si>
   <si>
@@ -596,9 +590,6 @@
     <t>Contactinformatie</t>
   </si>
   <si>
-    <t>Arko Ghosh, Sectie Cognitieve Psychologie, Instituut Psychologie, Universiteit Leiden agestudy@fsw.leidenuniv.nl</t>
-  </si>
-  <si>
     <t>Withdrawal from experiment</t>
   </si>
   <si>
@@ -635,161 +626,170 @@
     <t>This study is designed to capture the behavioral and cognitive changes that occur with normal/healthy aging. The targeted period of observation is three years but if the study conditions allow, you may voluntarily extend your participation. To capture the behavioral changes, we shall exploit day-to-day smartphone and/or tablet touchscreen data logs – which will remain active throughout the entire duration of the study. These logs will enable us to capture for instance how your speed of performance on the touchscreen alters with age. The study further exploits online cognitive tests conducted at a rate of once a month through the entire study period. If you participate in the recording of brain activity (optional), you will additionally spend time in and around the laboratory using your own smartphone while we capture the brain signals. These sessions will be conducted at the rate of approximately once a year through the study period. Recording brain activity is without risk: it concerns a so-called electro-encephalogram, better known as EEG. From this rich source of information we expect to derive how your behavior alters with age and how the brain contributes to these changes</t>
   </si>
   <si>
+    <t>Step 1. Read the detailed &lt;a href=/for_participant#start_info&gt;information sheet&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Step 2. Install the &lt;a href=/about_app&gt;App&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Stap 2. Installeer de &lt;a href=/about_app&gt;App&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stap 1. Lees het gedetailleerde &lt;a href=/for_participant#start_info&gt;informatieblad&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Dit onderzoek vindt online plaats, en als u wilt kunt u er ook voor kiezen deel te nemen aan de metingen in het laboratorium van de Universiteit Leiden (Instituut Psychologie, &lt;a href="https://www.universiteitleiden.nl/locaties/pieter-de-la-court#tab-1 target=_blank_"&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>This study occurs online, and if you choose you can additionally participate in the laboratory-based measures conducted at Leiden University (Institute of Psychology, &lt;a href="https://www.universiteitleiden.nl/en/locations/pieter-de-la-court" target=_blank_&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>qMCI: This short – 5 min – questionnaire will access your rough mental status on the day of the EEG experimentation when you visit us in Leiden.</t>
+  </si>
+  <si>
+    <t>Online vragenlijsten en metingen</t>
+  </si>
+  <si>
+    <t>Smartphone App die op de achtergrond actief is</t>
+  </si>
+  <si>
+    <t>qMCI: Deze korte - 5 min - vragenlijst is bedoeld om een globaal beeld te krijgen van uw mentale functionering op de dag van het EEG-experiment.</t>
+  </si>
+  <si>
+    <t>Taak 1. Open de TapCounter App om de paar dagen voor 3 jaar om het actief te houden</t>
+  </si>
+  <si>
+    <t>Taak 2. Voer online taken uit die slechts ongeveer 15 minuten per maand duren voor 3 jaar</t>
+  </si>
+  <si>
+    <t>Taak 3.  Breng ons op de hoogte van belangrijke gebeurtenissen in uw leven voor 3 jaar met behulp van de TapCounter App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taak 4 (optioneel). Kom naar het laboratorium voor hersenmetingen (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) eenmaal per jaar gedurende 3 jaar </t>
+  </si>
+  <si>
+    <t>Task 1. Launch the TapCounter App every few days to keep it running for 3 years</t>
+  </si>
+  <si>
+    <t>Task 3. Inform us of any major life events you have in the 3 years that you are using the TapCounter App</t>
+  </si>
+  <si>
+    <t>Task 4 (Optional). Come to the laboratory for Brain (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) measurements once a year for 3 years</t>
+  </si>
+  <si>
+    <t>Demographic information using a questionnaire including age (in years and months) and gender</t>
+  </si>
+  <si>
+    <t>Demografische informatie met behulp van een vragenlijst inclusief leeftijd (in aantal jaar en maanden) en geslacht</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smartphonegebruik vragenlijst. In deze vragenlijst wordt u gevraagd hoe u uw smartphone bedient en gebruikt</t>
+  </si>
+  <si>
+    <t>Levenskwaliteit vragenlijst. In deze vragenlijst wordt u gevraagd naar uw dagelijkse leefomstandigheden</t>
+  </si>
+  <si>
+    <t>Taakwisseling. We meten uw vermogen om te wisselen tussen taken die u tegelijk uitvoert. Hierbij is de opdracht dat u letters of cijfers beoordeelt</t>
+  </si>
+  <si>
+    <t>Geheugentests. We gebruiken twee tests waarbij u zich recent gepresenteerde stimuli - zoals een letter of patroon – moet proberen te herinneren. Deze tests dienen om uw geheugen en ook uw algemene waarnemings- en motorische functies in kaart te brengen</t>
+  </si>
+  <si>
+    <t>Task switching. We will evaluate your ability to switch between two tasks thatyou perform in parallel. In this task you are instructed toidentify a specific pattern of letters vs. numbers</t>
+  </si>
+  <si>
+    <t>Memory tests. We will use two tests where you recall recently presented stimuli – such as a letter or pattern. These tests serve to assess your memory and also your general perceptual and motoric functions</t>
+  </si>
+  <si>
+    <t>Quality of life questionnaire. In this questionnaire, you will be asked about your day to day living conditions</t>
+  </si>
+  <si>
+    <t>Smartphone usage questionnaire. In this questionnaire, you will be asked about how you operate and use your smartphone</t>
+  </si>
+  <si>
+    <t>The unique identifier randomly generated by the App as in 138xxxiwhhwhh992ef</t>
+  </si>
+  <si>
+    <t>De unieke deelnemerscode die door de App willekeurig wordt aangemaakt, bijvoorbeeld 138xxxiwhhwhh992ef</t>
+  </si>
+  <si>
+    <t>De fabrikant en het model van de smartphone zoals SAMSUNG A10</t>
+  </si>
+  <si>
+    <t>Het versienummer van het Android besturingssysteem version zoals versie 10.0</t>
+  </si>
+  <si>
+    <t>Het tijdstip van elke aanraking van de touchscreen, zoals op 20 januari, 10u, 5m,10s,5ms</t>
+  </si>
+  <si>
+    <t>Of uw telefoon in de portret- of landschapsmodus (dat wil zeggen, verticaal of horizontaal) wordt gebruikt</t>
+  </si>
+  <si>
+    <t>If your phone was used in the portrait or landscape mode (that is, vertical or horizontal)</t>
+  </si>
+  <si>
+    <t>Rough location as in Leiden, Netherlands (rounded position information)</t>
+  </si>
+  <si>
+    <t>Android operating system version number as in version 10.0</t>
+  </si>
+  <si>
+    <t>Any app data collected AFTER the withdrawal is deleted</t>
+  </si>
+  <si>
+    <t>Alle app-gegevens die NA de terugtrekking zijn verzameld, worden gewist</t>
+  </si>
+  <si>
+    <t>U zult een schriftelijke bevestiging van de terugtrekking krijgen</t>
+  </si>
+  <si>
+    <t>Uw e-mail en alle correspondentie worden verwijderd in afwachting van vergoeding</t>
+  </si>
+  <si>
+    <t>Uw gegevens worden geanonimiseerd voor langdurige opslag, analyse en het delen van data</t>
+  </si>
+  <si>
+    <t>U krijgt een vergoeding volgens het vastgestelde tarief als u tenminste 1 jaar hebt deelgenomen</t>
+  </si>
+  <si>
+    <t>Alle gegevens die vóór het terugtrekken zijn verzameld worden niet gewist</t>
+  </si>
+  <si>
+    <t>All data collected prior to the withdrawal is not deleted</t>
+  </si>
+  <si>
+    <t>You will get compensation according to the set rate if you have participated for at least 1 year</t>
+  </si>
+  <si>
+    <t>Your data is rendered anonymous for long-term storage, analysis and distribution</t>
+  </si>
+  <si>
+    <t>Your email and all correspondences are deleted pending compensation</t>
+  </si>
+  <si>
+    <t>Task 2. Perform online tasks that take just about 15 minutes per month for 3 years</t>
+  </si>
+  <si>
+    <t>Step 3. &lt;a href=/register&gt;Register&lt;/a&gt; &amp; confirm your consent</t>
+  </si>
+  <si>
+    <t>Stap 3.  &lt;a href=/register&gt;Registreer&lt;/a&gt; &amp; bevestig uw toestemming </t>
+  </si>
+  <si>
+    <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: Dit is een methode om de hersenactiviteit te meten, waarbij zwakke elektrische signalen die de hersenen produceren met behulp van elektroden op de hoofdhuid worden geregistreerd. De methode wordt niet-invasief genoemd, wat in dit verband inhoudt dat alle metingen vanaf de buitenkant van uw hoofd kunnen worden verricht. Tijdens deze metingen wordt een aantal elektroden (tussen 32 - 64) op de hoofdhuid geplaatst om de hersenactiviteit te meten terwijl u bepaalde taken uitvoert, zoals reageren op een geluidstoon die via een koptelefoon wordt afgespeeld of aanraking van de vingertoppen met behulp van kleine magneten. Tijdens deze metingen zullen we u ook vragen om uw eigen smartphone te gebruiken om de hersensignalen te registreren die optreden in samenhang met het gebruik van de telefoon dat ook met de achtergrond-App wordt geregistreerd. Ter voorbereiding op deze metingen moet u aankomen met gewassen haar dat bij voorkeur een paar uur voor aanvang van het experiment al is gedroogd. Verder zullen we de huid waar de EEG-elektroden worden aangebracht vooraf reinigen met medische alcohol. Tijdens de EEG-sessie worden de volgende extra gegevens verzameld: bewegingssensormetingen van de armen en handen en een drie-dimensionele opname van de vorm van uw hoofd met de EEG-elektrode-locaties. Tijdens deze 3D-scan zullen we uw gezicht bedekken met een medisch wegwerpmasker.</t>
+  </si>
+  <si>
     <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: This is a method of measuring brain activity that scans for the small electrical signal changes generated by the brain and detectable on the scalp using specialized electrodes. The method is referred to as non-invasive, which in this situation means that all recordings can be taking place from the outside of the head. During these measures, a number of electrodes (between 32 – 64) will be placed on the scalp to record brain activity as you perform certain behavioral tasks such as respond to a sound tone delivered through earphones or touch of the finger tips using tiny magnets. During these measures, we shall also instruct you to use your own smartphone to capture the corresponding brain signals with the background App running to capture the phone behavior. In preparation for these measurements, you would need to
-arrive with your hair washed and dried; preferably dried a few hours before the experiment begins. Furthermore, we shall clean the skin areas connecting with the EEG electrodes using medical-grade alcohol. During the EEG session, the following additional data will be gathered: movement sensor recordings from the arms and hands and the 3 d model of your scalp with the EEG electrode locations. During the 3 d scanning to create your scalp model we will cover your face using a disposable medical mask.</t>
-  </si>
-  <si>
-    <t>Step 1. Read the detailed &lt;a href=/for_participant#start_info&gt;information sheet&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Step 2. Install the &lt;a href=/about_app&gt;App&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Stap 2. Installeer de &lt;a href=/about_app&gt;App&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stap 1. Lees het gedetailleerde &lt;a href=/for_participant#start_info&gt;informatieblad&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t>Dit onderzoek vindt online plaats, en als u wilt kunt u er ook voor kiezen deel te nemen aan de metingen in het laboratorium van de Universiteit Leiden (Instituut Psychologie, &lt;a href="https://www.universiteitleiden.nl/locaties/pieter-de-la-court#tab-1 target=_blank_"&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
-  </si>
-  <si>
-    <t>This study occurs online, and if you choose you can additionally participate in the laboratory-based measures conducted at Leiden University (Institute of Psychology, &lt;a href="https://www.universiteitleiden.nl/en/locations/pieter-de-la-court" target=_blank_&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
-  </si>
-  <si>
-    <t>qMCI: This short – 5 min – questionnaire will access your rough mental status on the day of the EEG experimentation when you visit us in Leiden.</t>
-  </si>
-  <si>
-    <t>Online vragenlijsten en metingen</t>
-  </si>
-  <si>
-    <t>Smartphone App die op de achtergrond actief is</t>
-  </si>
-  <si>
-    <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: Dit is een methode om de hersenactiviteit te meten, waarbij zwakke elektrische signalen die de hersenen produceren met behulp van elektroden op de hoofdhuid worden geregistreerd. De methode wordt niet-invasief genoemd, wat in dit verband inhoudt dat alle metingen vanaf de buitenkant van uw hoofd kunnen worden verricht. Tijdens deze metingen wordt een aantal elektroden (tussen 32 - 64) op de hoofdhuid geplaatst om de hersenactiviteit te meten terwijl u bepaalde taken uitvoert, zoals reageren op een geluidstoon die via een koptelefoon wordt afgespeeld of aanraking van de vingertoppen met behulp van kleine magneten. Tijdens deze metingen zullen we u ook vragen om uw eigen smartphone te gebruiken om de hersensignalen te registreren die optreden in samenhang met het gebruik van de telefoon dat ook met de achtergrond-App wordt geregistreerd. Ter voorbereiding op deze metingen moet u aankomen met gewassen haar dat bij voorkeur een paar uur voor aanvang van het experiment al is gedroogd. Verder zullen we de huid waar de EEG-elektroden worden aangebracht vooraf reinigen met medische alcohol. Tijdens de EEG-sessie worden de volgende extra gegevens verzameld: bewegingssensormetingen van de armen en handen en een drie-dimensionele opname van de vorm van uw hoofd met de EEG-elektrode-locaties. Tijdens deze 3 d-scan zullen we uw gezicht bedekken met een medisch wegwerpmasker.</t>
-  </si>
-  <si>
-    <t>qMCI: Deze korte - 5 min - vragenlijst is bedoeld om een globaal beeld te krijgen van uw mentale functionering op de dag van het EEG-experiment.</t>
-  </si>
-  <si>
-    <t>Taak 1. Open de TapCounter App om de paar dagen voor 3 jaar om het actief te houden</t>
-  </si>
-  <si>
-    <t>Taak 2. Voer online taken uit die slechts ongeveer 15 minuten per maand duren voor 3 jaar</t>
-  </si>
-  <si>
-    <t>Taak 3.  Breng ons op de hoogte van belangrijke gebeurtenissen in uw leven voor 3 jaar met behulp van de TapCounter App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taak 4 (optioneel). Kom naar het laboratorium voor hersenmetingen (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) eenmaal per jaar gedurende 3 jaar </t>
-  </si>
-  <si>
-    <t>Task 1. Launch the TapCounter App every few days to keep it running for 3 years</t>
-  </si>
-  <si>
-    <t>Task 3. Inform us of any major life events you have in the 3 years that you are using the TapCounter App</t>
-  </si>
-  <si>
-    <t>Task 4 (Optional). Come to the laboratory for Brain (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) measurements once a year for 3 years</t>
-  </si>
-  <si>
-    <t>Demographic information using a questionnaire including age (in years and months) and gender</t>
-  </si>
-  <si>
-    <t>Demografische informatie met behulp van een vragenlijst inclusief leeftijd (in aantal jaar en maanden) en geslacht</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Smartphonegebruik vragenlijst. In deze vragenlijst wordt u gevraagd hoe u uw smartphone bedient en gebruikt</t>
-  </si>
-  <si>
-    <t>Levenskwaliteit vragenlijst. In deze vragenlijst wordt u gevraagd naar uw dagelijkse leefomstandigheden</t>
-  </si>
-  <si>
-    <t>Taakwisseling. We meten uw vermogen om te wisselen tussen taken die u tegelijk uitvoert. Hierbij is de opdracht dat u letters of cijfers beoordeelt</t>
-  </si>
-  <si>
-    <t>Geheugentests. We gebruiken twee tests waarbij u zich recent gepresenteerde stimuli - zoals een letter of patroon – moet proberen te herinneren. Deze tests dienen om uw geheugen en ook uw algemene waarnemings- en motorische functies in kaart te brengen</t>
-  </si>
-  <si>
-    <t>Task switching. We will evaluate your ability to switch between two tasks thatyou perform in parallel. In this task you are instructed toidentify a specific pattern of letters vs. numbers</t>
-  </si>
-  <si>
-    <t>Memory tests. We will use two tests where you recall recently presented stimuli – such as a letter or pattern. These tests serve to assess your memory and also your general perceptual and motoric functions</t>
-  </si>
-  <si>
-    <t>Quality of life questionnaire. In this questionnaire, you will be asked about your day to day living conditions</t>
-  </si>
-  <si>
-    <t>Smartphone usage questionnaire. In this questionnaire, you will be asked about how you operate and use your smartphone</t>
-  </si>
-  <si>
-    <t>The unique identifier randomly generated by the App as in 138xxxiwhhwhh992ef</t>
-  </si>
-  <si>
-    <t>De unieke deelnemerscode die door de App willekeurig wordt aangemaakt, bijvoorbeeld 138xxxiwhhwhh992ef</t>
-  </si>
-  <si>
-    <t>De fabrikant en het model van de smartphone zoals SAMSUNG A10</t>
-  </si>
-  <si>
-    <t>Het versienummer van het Android besturingssysteem version zoals versie 10.0</t>
-  </si>
-  <si>
-    <t>Het tijdstip van elke aanraking van de touchscreen, zoals op 20 januari, 10u, 5m,10s,5ms</t>
-  </si>
-  <si>
-    <t>Of uw telefoon in de portret- of landschapsmodus (dat wil zeggen, verticaal of horizontaal) wordt gebruikt</t>
-  </si>
-  <si>
-    <t>If your phone was used in the portrait or landscape mode (that is, vertical or horizontal)</t>
-  </si>
-  <si>
-    <t>Rough location as in Leiden, Netherlands (rounded position information)</t>
-  </si>
-  <si>
-    <t>Android operating system version number as in version 10.0</t>
-  </si>
-  <si>
-    <t>Any app data collected AFTER the withdrawal is deleted</t>
-  </si>
-  <si>
-    <t>Alle app-gegevens die NA de terugtrekking zijn verzameld, worden gewist</t>
-  </si>
-  <si>
-    <t>U zult een schriftelijke bevestiging van de terugtrekking krijgen</t>
-  </si>
-  <si>
-    <t>Uw e-mail en alle correspondentie worden verwijderd in afwachting van vergoeding</t>
-  </si>
-  <si>
-    <t>Uw gegevens worden geanonimiseerd voor langdurige opslag, analyse en het delen van data</t>
-  </si>
-  <si>
-    <t>U krijgt een vergoeding volgens het vastgestelde tarief als u tenminste 1 jaar hebt deelgenomen</t>
-  </si>
-  <si>
-    <t>Alle gegevens die vóór het terugtrekken zijn verzameld worden niet gewist</t>
-  </si>
-  <si>
-    <t>All data collected prior to the withdrawal is not deleted</t>
-  </si>
-  <si>
-    <t>You will get compensation according to the set rate if you have participated for at least 1 year</t>
-  </si>
-  <si>
-    <t>Your data is rendered anonymous for long-term storage, analysis and distribution</t>
-  </si>
-  <si>
-    <t>Your email and all correspondences are deleted pending compensation</t>
-  </si>
-  <si>
-    <t>Task 2. Perform online tasks that take just about 15 minutes per month for 3 years</t>
-  </si>
-  <si>
-    <t>Step 3. &lt;a href=/register&gt;Register&lt;/a&gt; &amp; confirm your consent</t>
-  </si>
-  <si>
-    <t>Stap 3.  &lt;a href=/register&gt;Registreer&lt;/a&gt; &amp; bevestig uw toestemming </t>
+arrive with your hair washed and dried; preferably dried a few hours before the experiment begins. Furthermore, we shall clean the skin areas connecting with the EEG electrodes using medical-grade alcohol. During the EEG session, the following additional data will be gathered: movement sensor recordings from the arms and hands and the 3D model of your scalp with the EEG electrode locations. During the 3D scanning to create your scalp model we will cover your face using a disposable medical mask.</t>
+  </si>
+  <si>
+    <t>In case volunteering for in lab measures: you have highly sensitive skin</t>
+  </si>
+  <si>
+    <t>The compensations are calculated based on the rate of 3.50 EUR per 30 min of online experimentation and 7.50 EUR per hour for EEG experiments. Moreover, for the online tests (as they sometimes take only 10 min), an indicator will show you the compensation amount accumulated. For the online test, only a maximum of one test can be rewarded per month but you can choose to do more without any compensation.</t>
+  </si>
+  <si>
+    <t>Arko Ghosh, Afdeling Cognitieve Psychologie, Instituut Psychologie, Universiteit Leiden agestudy@fsw.leidenuniv.nl</t>
   </si>
 </sst>
 </file>
@@ -1665,13 +1665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="53.54296875" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1702,10 +1702,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1713,10 +1713,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1724,10 +1724,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1746,10 +1746,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1757,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1768,10 +1768,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1779,10 +1779,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1801,7 +1801,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -1850,10 +1850,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1872,7 +1872,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -1916,10 +1916,10 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1952,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1960,10 +1960,10 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -1971,10 +1971,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1982,10 +1982,10 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1993,10 +1993,10 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2004,10 +2004,10 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2015,10 +2015,10 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2029,7 +2029,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -2048,10 +2048,10 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -2062,7 +2062,7 @@
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2070,10 +2070,10 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -2081,7 +2081,7 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -2095,7 +2095,7 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2114,10 +2114,10 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -2191,10 +2191,10 @@
         <v>93</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -2202,10 +2202,10 @@
         <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -2301,10 +2301,10 @@
         <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -2334,7 +2334,7 @@
         <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="C61" t="s">
         <v>127</v>
@@ -2342,277 +2342,277 @@
     </row>
     <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" t="s">
         <v>133</v>
-      </c>
-      <c r="C62" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
         <v>135</v>
-      </c>
-      <c r="B63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" t="s">
         <v>186</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>188</v>
-      </c>
-      <c r="C84" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" t="s">
         <v>187</v>
       </c>
-      <c r="B85" t="s">
-        <v>189</v>
-      </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2622,6 +2622,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
     <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
@@ -2799,15 +2808,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2815,6 +2815,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571203FD-96FA-4C52-A5CD-CF8F121E2059}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2832,14 +2840,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
   <ds:schemaRefs>

--- a/app/static/csv/for_participant.xlsx
+++ b/app/static/csv/for_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FB46FE-5F27-4AF3-82D6-98235A9CA040}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C98F2A2-9181-45AD-A35D-34626A6FF155}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="for_participant" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>tag</t>
   </si>
@@ -790,6 +791,24 @@
   </si>
   <si>
     <t>Arko Ghosh, Afdeling Cognitieve Psychologie, Instituut Psychologie, Universiteit Leiden agestudy@fsw.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>p24a</t>
+  </si>
+  <si>
+    <t>You may also be compensated for referring the data collection platform to a friend at the rate of 5 EUR per a successful referral. This compensation is only available if you reside in the Netherlands (as is any compensation in this study). A referral is considered successful only if the referred user uses the unique promotion code passed-on by you during the registration, and remains in the study for a period of 1 year. After this period, the reward amount can be requested for payment together with your bank details as explained above. You will be able to review the number of referrals on your dashboard at any time (when logged-in). This referral rewards program will become unavailable for new referrals as soon as the target recruitment is completed and you shall be explicitly informed of this via this website dashboard (when logged-in). This is entirely optional and has no other bearing on the study.</t>
+  </si>
+  <si>
+    <t>p24b</t>
+  </si>
+  <si>
+    <t>For University of Leiden students performing online tasks, the following reward structure applies. 1 Credit is offered for 30 min of online tasks. This corresponds to performing 2 recommended online tasks for 1 Credit, and a maximum of 4 credits can be obtained by performing 8 recommended tasks. The minimum duration for remaining in the study to receive any credit is 2 months. It is possible to remain in the study for paid or voluntary participation upon termination of the credit period and then general participation commitment applies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U kunt ook een beloning van 5 euro verdienen door iemand succesvol naar de het onderzoek te verwijzen. Deze beloning is alleen beschikbaar als u in Nederland woont (dat geldt voor elke betaling voor deze studie). Een verwijzing geldt alleen als succesvol als de persoon die verwezen is tijdens de registratie de unieke promotiecode invoert die u hebt gegeven, en een jaar lang deel blijft nemen aan het onderzoek. Na deze periode kan de beloning worden opgevraagd onder vermelding van de bankgegevens, zoals hierboven is uitgelegd. U kunt het aantal verwijzingen altijd inzien op uw dashboard (als u ingelogd bent). Zodra het beoogde aantal deelnemers bereikt is zal de mogelijkheid om geld te krijgen voor verwijzingen worden beëindigd. Hierover word u expliciet geïnformeerd via uw dashboard (als u ingelogd bent). Het staat u vrij om wel of niet mee te doen met het verwijzen van deelnemers. Dit heeft verder geen gevolgen voor de studie. </t>
+  </si>
+  <si>
+    <t>Voor studenten van de Universiteit Leiden die aan online taken deelnemen gelden de volgende beloningsregels. Er wordt 1 SONA credit toegekend voor 30 minuten online-testdeelname. Dit komt overeen met het doorlopen van twee aanbevolen online tests voor 1 credit. Er kunnen maximaal 4 credits worden behaald door 8 aanbevolen taken uit te voeren. U moet minimaal twee maanden aan de studie blijven deelnemen om credits te kunnen verdienen. Na de minimum periode die voor credit beloning geldt is het mogelijk om betaald of vrijwillig door te gaan met de studie. Vanaf dat moment gelden de algemene deelnameregels.</t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1845,7 +1864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2186,7 +2205,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2340,278 +2359,300 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>132</v>
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" t="s">
-        <v>161</v>
+        <v>131</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>190</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>191</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2622,6 +2663,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2630,7 +2677,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
     <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
@@ -2808,13 +2855,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2822,7 +2872,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571203FD-96FA-4C52-A5CD-CF8F121E2059}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2838,13 +2888,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/static/csv/for_participant.xlsx
+++ b/app/static/csv/for_participant.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\rushkock\agestudyenv\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C98F2A2-9181-45AD-A35D-34626A6FF155}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022250C7-65FC-4346-989F-F90DA1E90C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="for_participant" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -459,9 +458,6 @@
     <t>li_exlusion_9</t>
   </si>
   <si>
-    <t>Uw smartphone maakt GEEN gebruik van het Android-besturingssysteem</t>
-  </si>
-  <si>
     <t>U DEELT uw smartphone met anderen</t>
   </si>
   <si>
@@ -505,9 +501,6 @@
   </si>
   <si>
     <t>You SHARE your smartphone with others</t>
-  </si>
-  <si>
-    <t>Your smartphone is NOT an Android operating device</t>
   </si>
   <si>
     <t>We are sorry that if you answer any of the following in affirmative, we cannot include you in this study:</t>
@@ -809,6 +802,12 @@
   </si>
   <si>
     <t>Voor studenten van de Universiteit Leiden die aan online taken deelnemen gelden de volgende beloningsregels. Er wordt 1 SONA credit toegekend voor 30 minuten online-testdeelname. Dit komt overeen met het doorlopen van twee aanbevolen online tests voor 1 credit. Er kunnen maximaal 4 credits worden behaald door 8 aanbevolen taken uit te voeren. U moet minimaal twee maanden aan de studie blijven deelnemen om credits te kunnen verdienen. Na de minimum periode die voor credit beloning geldt is het mogelijk om betaald of vrijwillig door te gaan met de studie. Vanaf dat moment gelden de algemene deelnameregels.</t>
+  </si>
+  <si>
+    <t>You use an iPhone or another smartphone that is not operating on Android (i.e. only Android phones can participate)</t>
+  </si>
+  <si>
+    <t>U gebruikt een iPhone of een ander smartphone dat geen Android besturingssysteem heeft (d.w.z. alleen Android smartphones kunnen deelnemen)</t>
   </si>
 </sst>
 </file>
@@ -1685,16 +1684,16 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1716,40 +1715,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1760,51 +1759,51 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1815,18 +1814,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1859,23 +1858,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1886,18 +1885,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1930,18 +1929,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1971,76 +1970,76 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2048,10 +2047,10 @@
         <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2062,18 +2061,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2081,32 +2080,32 @@
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -2114,10 +2113,10 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -2128,18 +2127,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2205,29 +2204,29 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -2315,18 +2314,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2348,40 +2347,40 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>256</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>257</v>
       </c>
-      <c r="C62" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>258</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>259</v>
       </c>
-      <c r="C63" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -2392,268 +2391,268 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>166</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
         <v>189</v>
       </c>
-      <c r="C75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" t="s">
-        <v>237</v>
-      </c>
-      <c r="C77" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" t="s">
-        <v>246</v>
-      </c>
-      <c r="C80" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>173</v>
-      </c>
-      <c r="B82" t="s">
-        <v>244</v>
-      </c>
-      <c r="C82" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>178</v>
-      </c>
-      <c r="B85" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>184</v>
-      </c>
-      <c r="B86" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>185</v>
-      </c>
-      <c r="B87" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
         <v>190</v>
-      </c>
-      <c r="B88" t="s">
-        <v>191</v>
-      </c>
-      <c r="C88" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2663,18 +2662,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2856,18 +2855,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/static/csv/for_participant.xlsx
+++ b/app/static/csv/for_participant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\rushkock\agestudyenv\agestudy\app\static\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\rushkock\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022250C7-65FC-4346-989F-F90DA1E90C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B60959-0061-4F4A-A7B1-94AE6CDC6A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="for_participant" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="334">
   <si>
     <t>tag</t>
   </si>
@@ -94,9 +94,6 @@
     <t>p3</t>
   </si>
   <si>
-    <t>March 2020, Leiden</t>
-  </si>
-  <si>
     <t>h14</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Informatie voor deelnemers aan het onderzoek</t>
   </si>
   <si>
-    <t>Maart 2020, Leiden</t>
-  </si>
-  <si>
     <t>Touchscreen-gedrag en hersenfuncties gedurende de levensloop</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>p6</t>
   </si>
   <si>
-    <t>Deze studie is ontworpen om de gedrags- en cognitieve veranderingen die plaatsvinden bij normaal/gezond ouder worden vast te leggen. De gewenste observatieperiode is drie jaar. Mochten de studieomstandigheden het toelaten, dan kunt u uw deelname vrijwillig verlengen. Om de veranderingen in uw gedrag vast te leggen, zullen we gebruik maken van de continue registratie van het gebruik van uw smartphone en/of tablet. Deze registratie blijft actief gedurende de volledige duur van het onderzoek. Deze registraties geven ons bijvoorbeeld de mogelijkheid om vast te stellen wat de snelheid is waarmee u de touchscreen bedient. Het onderzoek maakt verder gebruik van online cognitieve testen die u gedurende de onderzoeksperiode één keer per maand uitvoert. Als u deelneemt aan de registratie van hersenactiviteit (optioneel), dan zult u extra tijd doorbrengen in en rondom het laboratorium terwijl u uw eigen smartphone gebruikt. Tijdens deze verrichtingen zullen wij uw hersenactiviteit registreren. Deze sessies worden ongeveer één keer per jaar gedurende de onderzoeksperiode uitgevoerd. De registratie van hersenactiviteit is zonder risico’s: het gaat om een zogenaamd electro-encephalogram, beter bekend als EEG. Uit deze rijke informatiebron denken we af te kunnen leiden hoe uw gedrag verandert met leeftijd en hoe het brein aan deze veranderingen bijdraagt.</t>
-  </si>
-  <si>
     <t>Purpose of this study</t>
   </si>
   <si>
@@ -148,18 +139,12 @@
     <t>De tijdsbesteding voor deze studie</t>
   </si>
   <si>
-    <t>De minimumeis voor deelname - en indien mogelijk een vergoeding - is om ten minste ÉÉN test per maand uit te voeren die maximaal 15 minuten duurt. Als u er ook voor kiest om ons in Leiden te bezoeken voor een EEG-meting dan duurt deze meting 4 uur per sessie. Dit is de gewenste duur van het onderzoek, maar u kunt ervoor kiezen om de online tests vaker uit te voeren zonder dat u daarvoor een extra beloning krijgt en ook vaker EEG-metingen te laten verrichten indien de onderzoekscapaciteit dit toelaat.</t>
-  </si>
-  <si>
     <t>Onderzoekslocatie</t>
   </si>
   <si>
     <t>Communicatie en gecodeerde gegevensverzameling</t>
   </si>
   <si>
-    <t>Gedurende de onderzoeksperiode wordt uw e-mailadres opgeslagen voor communicatiedoeleinden. Aan het einde van de studieperiode wordt dit adres en alle behorende correspondentie verwijderd. De gegevens worden verzameld met behulp van een unieke deelnemerscode zoals 'AG99' of '138uue000jxiii19920'. Aangezien uw e-mail het voornaamste kanaal is om met u te communiceren, wordt u verzocht uw e-mail regelmatig te controleren tijdens de onderzoeksperiode. Wij zullen met u communiceren via agestudy@fsw.leidenuniv.nl. Houd er alstublieft rekening mee dat post in deze gedeelde mailbox zichtbaar is voor het hele onderzoeksteam van de Universiteit Leiden.</t>
-  </si>
-  <si>
     <t>Study location</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>p9</t>
   </si>
   <si>
-    <t>Throughout this study period, your email address will be stored for communication purposes. At the end of the study period, this address and all correspondence will be deleted. The data will be collected using random identifiers such as ‘AG99’ or ‘138uue000jxiii19920’. As your email is the primary method for us to communicate with you please do remember to check it during the study period. We will communicate with you via agestudy@fsw.leidenuniv.nl . Please note that this shared mailbox is visible to the research team at Leiden University.</t>
-  </si>
-  <si>
     <t>Communication and coded data collection</t>
   </si>
   <si>
@@ -214,9 +196,6 @@
     <t>Smartphone App operating in the background</t>
   </si>
   <si>
-    <t>Er zal aan u gevraagd worden om een App (TapCounter) te installeren die ontworpen en geïmplementeerd is door een dochterinstituut van de Universiteit van Zürich QuantActions Ltd (Lausanne, Zwitserland). Deze App houdt uw gedrag op de achtergrond van de smartphone en/of tablet bij met behulp van een unieke deelnemerscode (zoals 138xxxiwhhwhh992ef). De volgende informatie wordt door de App verzameld en voorzien van de unieke deelnemerscode ter beschikking gesteld aan het onderzoeksteam:</t>
-  </si>
-  <si>
     <t>li_smartphone_1</t>
   </si>
   <si>
@@ -235,15 +214,6 @@
     <t>li_smartphone_6</t>
   </si>
   <si>
-    <t>li_smartphone_7</t>
-  </si>
-  <si>
-    <t>Globale locatie zoals in Leiden, Nederland (afgeronde positie-informatie)</t>
-  </si>
-  <si>
-    <t>Het label van de App die in gebruik is zoals Facebook of Weer</t>
-  </si>
-  <si>
     <t>p12</t>
   </si>
   <si>
@@ -253,45 +223,15 @@
     <t>p14</t>
   </si>
   <si>
-    <t>Let op: '5' en '6' maken het mogelijk om meer informatie uit af te leiden, zoals de snelheid van het typen, aangepast aan het type App dat in gebruik is.</t>
-  </si>
-  <si>
     <t>Er wordt nooit persoonlijke informatie verzameld zoals tekstberichten, afbeeldingen, browsergeschiedenis of contactinformatie.</t>
   </si>
   <si>
-    <t>Alle gegevens worden versleuteld op de telefoon en veilig opgeslagen na ontsleuteling in IBM-servers aan de hand van willekeurige codes die door de App worden gegenereerd. De gegevens worden van uw telefoon naar de cloud verzonden, bij voorkeur in de aanwezigheid van een Wi-Fi-verbinding. Op geen enkel moment kunnen deze beveiligde servers (die werken onder de meest hoogwaardige industriële certificeringen) verwijzen naar het e-mailadres of de e-mailadressen die door u zijn opgegeven. De verbinding voor data tussen dit e-mailadres en de telefoon wordt slechts tijdelijk gemaakt via nog een andere code wanneer de data worden gedownload naar een lokale computer van de Universiteit Leiden. Dit geeft ons de mogelijkheid om met u te communiceren in het geval dat de gegevensverzameling wordt verstoord of om verdere instructies te geven, zoals herinneringen wanneer de verwachte hoeveelheid gegevens niet wordt behaald. Tegelijkertijd zorgt het ervoor dat uw e-mailadres nooit door iemand anders dan leden van het Leidse onderzoeksteam aan de smartphonegegevens kan worden gekoppeld. Zodra de gegevensverzameling door u is voltooid of beëindigd, wordt het e-mailadres volledig losgekoppeld van de smartphonegegevens (en feitelijk alle andere gegevens) door het verwijderen van de e-mailinformatie en e-mailcorrespondentie.</t>
-  </si>
-  <si>
-    <t>You will be asked to install an App (TapCounter) which is designed and implemented by a University of Zurich spinoff QuantActions Ltd (Lausanne, Switzerland). This App tracks your behavior on the smartphone and/or tablet in the background using a unique identifier (such as 138xxxiwhhwhh992ef). The following information is gathered by the App and made available to the research team associated with the unique identifier:</t>
-  </si>
-  <si>
-    <t>Manufacturer and model of the smartphone as in SAMSUNG A10</t>
-  </si>
-  <si>
-    <t>The timestamp of the touchscreen touch as in 20th Jan 2020, 10h,5m,10s,5ms</t>
-  </si>
-  <si>
-    <t>The label of the App in use as in Facebook or Weather</t>
-  </si>
-  <si>
-    <t>Please note that ‘5’ and ‘6’ enable us to derive more information such as tapping speed, adjusted according to the type of App in use.</t>
-  </si>
-  <si>
     <t>No personally identifiable content as in text messages, images, browsing history or contact information is ever collected.</t>
   </si>
   <si>
-    <t>All data is encrypted on the phone and stored securely after un-encryption in IBM servers under random codes generated by the App. The data is transmitted from your phone to the cloud preferably in the presence of Wi-Fi connectivity. At no point can these secure servers (operating under the highest-grade industry certifications) link to the email address/es provided by you. This email address to the phone data link is only temporarily made via yet another code when the data is downloaded to a local computer at Leiden University. This allows us to interact with you in case data collection is disrupted or to provide further instructions such as reminders if the expected data is not met. At the same time, it ensures your email address can be never linked to the smartphone data by anyone else other than members of the research team at Leiden. Once the data collection is completed or terminated by you the email will be entirely disconnected from the smartphone data (and in fact all other data) through deletion of the email information and email correspondences.</t>
-  </si>
-  <si>
     <t>h21</t>
   </si>
   <si>
-    <t>Een kort verslag van belangrijke levenservaringen</t>
-  </si>
-  <si>
-    <t>Als u te maken krijgt met een belangrijke gebeurtenis in uw leven, zoals geboorte, huwelijk, overlijden van een vriend of familielid, verlies van baan, letsel, ziekenhuisopname of verandering van verblijfplaats, registreer dan het tijdstip en de aard van de gebeurtenis (zonder namen of locaties te noemen) in de 'Notes' functie van de TapCounter App. Hoewel we u actief afraden om persoonlijke gegevens zoals namen, geboortedata, e-mailadressen, etc. in te voeren, is het mogelijk dat u hier per ongeluk persoonlijke gegevens invoert. Om ervoor te zorgen dat uw privacy onder deze omstandigheden wordt beschermd, zullen we a. deze notities nooit buiten het onderzoeksteam om vrijgeven zonder eerst alle onbedoeld ingevoerde persoonlijke gegevens eruit te filteren b. gebruik maken van een zeer veilige behandeling van de gegevens samen met de industriestandaard codering tijdens de verzending.</t>
-  </si>
-  <si>
     <t>p15</t>
   </si>
   <si>
@@ -307,18 +247,9 @@
     <t>p17</t>
   </si>
   <si>
-    <t>Short notes on significant life events</t>
-  </si>
-  <si>
-    <t>If you have been affected by any major life event such as birth, marriage, death of a friend or family member, loss of job, injury, hospitalization or change in residence, please record the time and the nature of event (without mentioning any names or location) in the ‘Notes’ feature of the TapCounter App. Although we actively discourage you from entering any personal details like names, dates of birth, email addresses, etc., it is possible that you mistakenly enter personal information here. To ensure your privacy is protected under these circumstances, we will a. never release these notes beyond the research team without first filtering out any unintentionally entered personal details b. use highly secure handling of the data along with industry-standard encryption during transmission.</t>
-  </si>
-  <si>
     <t>In laboratory measures</t>
   </si>
   <si>
-    <t>Data sharing and handling</t>
-  </si>
-  <si>
     <t>h23</t>
   </si>
   <si>
@@ -337,46 +268,6 @@
     <t>p19</t>
   </si>
   <si>
-    <t>Gegevensdeling en -verwerking</t>
-  </si>
-  <si>
-    <t>Deze studie zal op een gecodeerde manier gegevens verzamelen uit meerdere bronnen, zoals hierboven vermeld, met behulp van verschillende leveranciers van softwarediensten. Ongeacht de wijze van verzamelen worden al uw gegevens samengevoegd op de lokale computers van Universiteit Leiden onder unieke deelnemerscodes. Hieronder geven we een overzicht van de opslag van de afzonderlijke bronnen en hoe het geheel verder wordt gedeeld met de wetenschappelijke gemeenschap en het grotere publiek.</t>
-  </si>
-  <si>
-    <t>p20</t>
-  </si>
-  <si>
-    <t>Hieronder volgen de drie afzonderlijke dienstverleners en de bijbehorende dataverwerking:</t>
-  </si>
-  <si>
-    <t>QuantActions, Zwitserland (TapCounter App) De smartphone-gegevens worden minimaal 5 jaar opgeslagen op een IBM-cloudservice (locatie EU) die via QuantActions is gekoppeld aan de TapCounter App. Op deze geïsoleerde smartphonedatabase blijven de gegevens altijd
-losgekoppeld van uw e-mailadres en na afloop van het onderzoek worden de deelnemerscodes verder verwijderd op de IBM-cloud om ze echt anoniem te maken.</t>
-  </si>
-  <si>
-    <t>Psytoolkit.org, Straatsburg (Online tests). De gecodeerde online testgegevens worden tijdelijk opgeslagen op de onderzoeksserver die wordt beheerd door Psytoolkit.org (Straatsburg) en opgeslagen binnen de UK/EU totdat ze worden gedownload in Leiden. De server wordt beheerd door Prof. Gijsbert Stoet. De gegevens op de Psytoolkit server worden losgekoppeld van alle demografische informatie of e-mail. Nadat het verzamelen van de gegevens is voltooid, zullen de gegevens van deze server worden verwijderd en volgens Psytoolkit zal de verwijdering binnen zijn verwerkt. De lange-termijnopslag van data in en vanuit Universiteit Leiden plaatsvinden.</t>
-  </si>
-  <si>
-    <t>Leiden Universiteit en IBM cloud. Het e-mailadres voor de aanmelding bij online tests is opgeslagen op de IBM-cloud in de EU, maar in een database die gescheiden is van de database voor smartphone-gegevens via Quantactions. Alle e-mailcorrespondentie en e-mailadressen die zijn opgeslagen in agestudy@fsw.leidenuniv.nl worden aan het einde van de onderzoeksperiode verwijderd. Het e-mailadres wordt aan het eind van de onderzoeksperiode eveneens van de IBM-cloud verwijderd. Al uw gegevens en de bijbehorende analyse worden in geanonimiseerde vorm aan het publiek gerapporteerd. Wanneer uw gegevens anoniem op een openbaar platform worden geplaatst, kunnen ze verder worden verwerkt door de wetenschappelijke gemeenschap om nieuwe gedragspatronen of nieuwe hersen-gedragsrelaties en leeftijdstijdeffecten te ontdekken.</t>
-  </si>
-  <si>
-    <t>Bovendien zullen alle gegevens die de basis vormen van een aan het publiek gemelde ontdekking worden geüpload op publieke dataopslagplaatsen en op Dataverse, in overeenstemming met het beleid van het Instituut Psychologie en de wetenschappelijke tijdschriften die de bevindingen rapporteren. De opslagplaatsen kunnen voor een onbepaalde tijd data beheren.</t>
-  </si>
-  <si>
-    <t>Psytoolkit.org, Strasbourg (Online tests). The coded online testing data will be temporarily stored on the research server administered by Psytoolkit.org (Strasbourg) and stored within the UK/EU until it is downloaded in Leiden. The server is managed by Prof. Gijsbert Stoet. The data on the Psytoolkit server will be disconnected from any demographic information or email. After data collection is completed the data will be deleted from this server and according to Psytoolkit, the deletion will take effect on their servers within 24 hours.The long-term data will be stored at Leiden and released from Leiden.</t>
-  </si>
-  <si>
-    <t>QuantActions, Switzerland (TapCounter App) The smartphone data will be stored for a minimum of 5 years on an IBM cloud service (location EU) linked to the TapCounter App via QuantActions. On this isolated smartphone database, the data will always remain disconnected from your email address and after the study completion, the participation IDs will be further deleted on the IBM cloud to render it truly anonymous.</t>
-  </si>
-  <si>
-    <t>The following are the three distinct service providers and the corresponding data handling:</t>
-  </si>
-  <si>
-    <t>This study will gather data in a coded manner from multiple sources as mentioned above using different software service providers. Irrespective of the form of collection, all of your data will be pooled together on the local computers at Leiden University under unique participation IDs. Below we shall outline the storage of the separate sources and how it is all distributed further to the scientific community and public at large.</t>
-  </si>
-  <si>
-    <t>Furthermore, any data which forms the basis of a discovery reported to the public will be uploaded on public data repositories and on to Dataverse, as per the policies of the Journals that communicate the findings and the Institute of Psychology. The repositories can host data indefinitely.</t>
-  </si>
-  <si>
     <t>Leiden University and IBM cloud. The email address for signing up on the online tests is stored on the IBM cloud in the EU. All the email correspondence and email addresses stored in agestudy@fsw.leidenuniv.nl will be deleted at the end of the study period. Moreover, at the end of the study period the email address stored in the IBM cloud will also be deleted . All your data and the corresponding analysis will be reported to the public in anonymized form. When deposited anonymously in a public platform your data may be further processed by the scientific community to discover new patterns of behavior or new brain-behavior relationships and age effects.</t>
   </si>
   <si>
@@ -401,21 +292,12 @@
     <t>p24</t>
   </si>
   <si>
-    <t>Bij deelname aan alleen het online gedeelte van de onderzoek bedraagt de vergoeding 80 euro, verdeeld over drie jaar. Indien u ook deelneemt aan het EEG-onderzoek bedraagt de vergoeding 170 EUR gespreid over drie jaar (aangenomen dat u 4 uur per jaar deelneemt). U kunt ervoor kiezen om uw vergoeding één keer per jaar te innen of te wachten tot het einde van het onderzoek. De jaarlijkse doelstellingen van één test per maand moeten worden behaald om de vergoeding te ontvangen. Uitzonderingen (bijvoorbeeld gemiste metingen door ziekte of vakanties) zullen expliciet goedgekeurd worden door het onderzoeksteam.</t>
-  </si>
-  <si>
     <t>De vergoedingen worden berekend op basis van het tarief van 3,50 EUR per 30 min voor online experimenten en 7,50 EUR per uur voor EEG-onderzoek. Bovendien zal voor de online testen (die soms maar 10 min. duren) met een indicator het totale tegoed aangeven. Voor deelname aan een online test kan slechts maximaal één test per maand worden beloond, maar u kunt ervoor kiezen om meer te doen zonder extra vergoeding</t>
   </si>
   <si>
     <t>Compensation</t>
   </si>
   <si>
-    <t>You can also participate in this study without any compensation. At the time of enrolment, we will clearly indicate if compensation is possible.</t>
-  </si>
-  <si>
-    <t>If participating in the online-only part of the study the compensation is 80 EUR spread over three years. If participating in the EEG experiments in addition, the compensation is 170 EUR spread over three years (under the assumption of 4 hours of participation per year). You may choose to collect your compensation once a year or wait until the end of the study. The annual targets of one test per month must be met to receive the compensation. Exceptions (for instance, missed tests due to illness or vacations) will have to be be explicitly approved by the research team.</t>
-  </si>
-  <si>
     <t>h25</t>
   </si>
   <si>
@@ -431,9 +313,6 @@
     <t>Helaas kunnen wij u niet laten deelnemen aan dit onderzoek als u een van de volgende vragen bevestigend beantwoordt:</t>
   </si>
   <si>
-    <t>li_exlusion_1</t>
-  </si>
-  <si>
     <t>li_exlusion_2</t>
   </si>
   <si>
@@ -509,9 +388,6 @@
     <t>Terugtrekken uit het onderzoek</t>
   </si>
   <si>
-    <t>U kunt zich op elk moment terugtrekken. Om u terug te trekken uit het onderzoek, stuurt u eenvoudigweg een e-mail naar het onderzoeksteam. U hoeft ons geen redenen voor uw terugtrekking te geven, maar als u die opgeeft, zullen we de reden samen met de historische gegevens (gegevens van vóór de terugtrekking) vastleggen. Als u zich heeft aangemeld voor het onderzoek maar gedurende een periode van 1 jaar geen online testactiviteiten heeft uitgevoerd of niet heeft gecommuniceerd met het onderzoeksteam, zullen wij uw deelname vanaf die datum automatisch intrekken. Dit zijn de gevolgen van de intrekking:</t>
-  </si>
-  <si>
     <t>Zoals vermeld in 'f', kunnen wij uw historische gegevens niet verwijderen, voornamelijk omdat de gegevens in meerdere tussenpozen worden verwerkt en de gedeeltelijke gegevens routinematig worden opgeslagen op lokale computers van de Universiteit Leiden na een complete anonimisering (door het verwijderen van de koppeling tussen e-mailadres en de deelnemerscode).</t>
   </si>
   <si>
@@ -545,30 +421,15 @@
     <t>Consent</t>
   </si>
   <si>
-    <t>All experiments require your explicit consent. For online experiments, you will consent with a ‘check’ mark and for EEG experiments we will verify your consent with a signature on paper. The consent documentation will be stored under a unique participation number provided to you at the time of the sign-up for future reference.</t>
-  </si>
-  <si>
     <t>h27</t>
   </si>
   <si>
     <t>p28</t>
   </si>
   <si>
-    <t>As mentioned in ‘f’, we are unable to delete your historical data mainly as the data is intermittently processed and the partial data is routinely backed-up on local computers at Leiden University after true anonymization (by deletion of the email address to ID link).</t>
-  </si>
-  <si>
-    <t>You will get a written confirmation of the withdrawal</t>
-  </si>
-  <si>
     <t>Toestemming</t>
   </si>
   <si>
-    <t>Voor alle experimenten is uw uitdrukkelijke toestemming nodig. Voor online experimenten geeft u toestemming met een 'vinkje' en voor EEG-experimenten controleren we uw toestemming met een papieren handtekening. De toestemmingsdocumentatie wordt opgeslagen onder een uniek deelnemerscode die u bij de aanmelding ontvangt om in de toekomst te kunnen raadplegen.</t>
-  </si>
-  <si>
-    <t>You can withdraw at any time. To withdraw from the study, simply send an email to the research team. You do not need to provide us with any reasons for your withdrawal but if you provide one, we shall record the reason along with the historical (pre-withdrawal data). If you signed up for the study but did not engage in any online testing activity for a 1-year period or did not communicate with the research team we will automatically withdraw your participation from that date. These are the consequences of the withdrawal:</t>
-  </si>
-  <si>
     <t>h28</t>
   </si>
   <si>
@@ -602,24 +463,6 @@
     <t>Our online platform will present a range of short questionnaires and tests. The objective of these tests is summarized here.</t>
   </si>
   <si>
-    <t>Ons online platform zal een aantal korte vragenlijsten en tests aanbieden. Het doel van deze tests wordt hier samengevat</t>
-  </si>
-  <si>
-    <t>Next to the research data that are being collected to answer the research questions, a number of additional personal data will be collected in the context of the payout of participant compensation (Address, IBAN bank account number and registered name for this bank account). These personal data will be saved separately from the research data and will be shared with the financial administration of Leiden University, who will pass this information on to the Tax Department. The University is legally obliged to report the participant compensation to the Tax Department. Whether or not the Tax Department will make you pay taxes on these cash payments, will depend on your personal situation.</t>
-  </si>
-  <si>
-    <t>Naast de voor het beantwoorden van de onderzoeksvragen verzamelde gegevens zullen tevens een aantal persoonsgegevens worden verzameld in het kader van de uitbetaling van proefpersoongelden voor het onderzoek (Adres, IBAN rekeningnummer en Tenaamstelling van dit rekeningnummer). Deze persoonsgegevens zullen apart van de onderzoeksdata worden opgeslagen en gedeeld met de financiële administratie van de Universiteit Leiden, die deze informatie door zal geven aan de Belastingdienst. De Universiteit is wettelijk verplicht aangifte te doen van de vergoeding die u ontvangt bij de Belastingdienst. Of de Belastingdienst belasting zal heffen over deze betaling, hangt af van uw persoonlijke situatie.</t>
-  </si>
-  <si>
-    <t>Thank you for considering to participate in our study of how brain and behavior change with age. This study has two parts in terms of the tests conducted and physical location. One part is conducted online and the other part is conducted in the laboratory. You may choose to participate in the online part only or both the laboratory AND online parts. While we look forward to explaining the details of the experiment please note that it is not mandatory to participate in this study, you can choose to withdraw at any time and you can ask us further questions through the entire study. There is no known medical benefit of participating in these experiments. As any remuneration associated with the study depends on your participation and as it takes considerable time to prepare and conduct these experiments, we would much appreciate that you carefully read this document before committing to our study.</t>
-  </si>
-  <si>
-    <t>Bedankt dat u overweegt deel te nemen aan het onderzoek naar verandering van hersenen en gedrag met leeftijd. Dit onderzoek bestaat uit twee delen voor wat betreft de uitgevoerde tests en de fysieke locatie. Eén deel wordt online uitgevoerd en het andere deel in het laboratorium. U mag kiezen deel te nemen aan alleen het online onderdeel of ZOWEL het laboratorium onderdeel ALS het online onderdeel. We leggen graag de details van het onderzoek uit, maar onthoud alstublieft dat het niet verplicht is om deel te nemen aan dit onderzoek en dat u zich op elk moment kan terugtrekken en ons gedurende het hele onderzoek vragen kunt stellen. Er is, voor zover bekend, geen medische voordeel verbonden aan deelname aan deze experimenten. We zouden het waarderen als u dit document zorgvuldig doorleest voordat u besluit om deel te nemen, aangezien het veel tijd kost om het onderzoek voor te bereiden en uit te voeren. De eventuele vergoeding voor deelname aan het onderzoek is afhankelijk van uw deelname.</t>
-  </si>
-  <si>
-    <t>This study is designed to capture the behavioral and cognitive changes that occur with normal/healthy aging. The targeted period of observation is three years but if the study conditions allow, you may voluntarily extend your participation. To capture the behavioral changes, we shall exploit day-to-day smartphone and/or tablet touchscreen data logs – which will remain active throughout the entire duration of the study. These logs will enable us to capture for instance how your speed of performance on the touchscreen alters with age. The study further exploits online cognitive tests conducted at a rate of once a month through the entire study period. If you participate in the recording of brain activity (optional), you will additionally spend time in and around the laboratory using your own smartphone while we capture the brain signals. These sessions will be conducted at the rate of approximately once a year through the study period. Recording brain activity is without risk: it concerns a so-called electro-encephalogram, better known as EEG. From this rich source of information we expect to derive how your behavior alters with age and how the brain contributes to these changes</t>
-  </si>
-  <si>
     <t>Step 1. Read the detailed &lt;a href=/for_participant#start_info&gt;information sheet&lt;/a&gt;</t>
   </si>
   <si>
@@ -632,24 +475,9 @@
     <t xml:space="preserve">Stap 1. Lees het gedetailleerde &lt;a href=/for_participant#start_info&gt;informatieblad&lt;/a&gt; </t>
   </si>
   <si>
-    <t>Dit onderzoek vindt online plaats, en als u wilt kunt u er ook voor kiezen deel te nemen aan de metingen in het laboratorium van de Universiteit Leiden (Instituut Psychologie, &lt;a href="https://www.universiteitleiden.nl/locaties/pieter-de-la-court#tab-1 target=_blank_"&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
-  </si>
-  <si>
-    <t>This study occurs online, and if you choose you can additionally participate in the laboratory-based measures conducted at Leiden University (Institute of Psychology, &lt;a href="https://www.universiteitleiden.nl/en/locations/pieter-de-la-court" target=_blank_&gt;Wassenaarseweg 52&lt;/a&gt;).</t>
-  </si>
-  <si>
-    <t>qMCI: This short – 5 min – questionnaire will access your rough mental status on the day of the EEG experimentation when you visit us in Leiden.</t>
-  </si>
-  <si>
     <t>Online vragenlijsten en metingen</t>
   </si>
   <si>
-    <t>Smartphone App die op de achtergrond actief is</t>
-  </si>
-  <si>
-    <t>qMCI: Deze korte - 5 min - vragenlijst is bedoeld om een globaal beeld te krijgen van uw mentale functionering op de dag van het EEG-experiment.</t>
-  </si>
-  <si>
     <t>Taak 1. Open de TapCounter App om de paar dagen voor 3 jaar om het actief te houden</t>
   </si>
   <si>
@@ -671,66 +499,6 @@
     <t>Task 4 (Optional). Come to the laboratory for Brain (&lt;a href=/eeg&gt;EEG&lt;/a&gt;) measurements once a year for 3 years</t>
   </si>
   <si>
-    <t>Demographic information using a questionnaire including age (in years and months) and gender</t>
-  </si>
-  <si>
-    <t>Demografische informatie met behulp van een vragenlijst inclusief leeftijd (in aantal jaar en maanden) en geslacht</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Smartphonegebruik vragenlijst. In deze vragenlijst wordt u gevraagd hoe u uw smartphone bedient en gebruikt</t>
-  </si>
-  <si>
-    <t>Levenskwaliteit vragenlijst. In deze vragenlijst wordt u gevraagd naar uw dagelijkse leefomstandigheden</t>
-  </si>
-  <si>
-    <t>Taakwisseling. We meten uw vermogen om te wisselen tussen taken die u tegelijk uitvoert. Hierbij is de opdracht dat u letters of cijfers beoordeelt</t>
-  </si>
-  <si>
-    <t>Geheugentests. We gebruiken twee tests waarbij u zich recent gepresenteerde stimuli - zoals een letter of patroon – moet proberen te herinneren. Deze tests dienen om uw geheugen en ook uw algemene waarnemings- en motorische functies in kaart te brengen</t>
-  </si>
-  <si>
-    <t>Task switching. We will evaluate your ability to switch between two tasks thatyou perform in parallel. In this task you are instructed toidentify a specific pattern of letters vs. numbers</t>
-  </si>
-  <si>
-    <t>Memory tests. We will use two tests where you recall recently presented stimuli – such as a letter or pattern. These tests serve to assess your memory and also your general perceptual and motoric functions</t>
-  </si>
-  <si>
-    <t>Quality of life questionnaire. In this questionnaire, you will be asked about your day to day living conditions</t>
-  </si>
-  <si>
-    <t>Smartphone usage questionnaire. In this questionnaire, you will be asked about how you operate and use your smartphone</t>
-  </si>
-  <si>
-    <t>The unique identifier randomly generated by the App as in 138xxxiwhhwhh992ef</t>
-  </si>
-  <si>
-    <t>De unieke deelnemerscode die door de App willekeurig wordt aangemaakt, bijvoorbeeld 138xxxiwhhwhh992ef</t>
-  </si>
-  <si>
-    <t>De fabrikant en het model van de smartphone zoals SAMSUNG A10</t>
-  </si>
-  <si>
-    <t>Het versienummer van het Android besturingssysteem version zoals versie 10.0</t>
-  </si>
-  <si>
-    <t>Het tijdstip van elke aanraking van de touchscreen, zoals op 20 januari, 10u, 5m,10s,5ms</t>
-  </si>
-  <si>
-    <t>Of uw telefoon in de portret- of landschapsmodus (dat wil zeggen, verticaal of horizontaal) wordt gebruikt</t>
-  </si>
-  <si>
-    <t>If your phone was used in the portrait or landscape mode (that is, vertical or horizontal)</t>
-  </si>
-  <si>
-    <t>Rough location as in Leiden, Netherlands (rounded position information)</t>
-  </si>
-  <si>
-    <t>Android operating system version number as in version 10.0</t>
-  </si>
-  <si>
-    <t>Any app data collected AFTER the withdrawal is deleted</t>
-  </si>
-  <si>
     <t>Alle app-gegevens die NA de terugtrekking zijn verzameld, worden gewist</t>
   </si>
   <si>
@@ -749,18 +517,6 @@
     <t>Alle gegevens die vóór het terugtrekken zijn verzameld worden niet gewist</t>
   </si>
   <si>
-    <t>All data collected prior to the withdrawal is not deleted</t>
-  </si>
-  <si>
-    <t>You will get compensation according to the set rate if you have participated for at least 1 year</t>
-  </si>
-  <si>
-    <t>Your data is rendered anonymous for long-term storage, analysis and distribution</t>
-  </si>
-  <si>
-    <t>Your email and all correspondences are deleted pending compensation</t>
-  </si>
-  <si>
     <t>Task 2. Perform online tasks that take just about 15 minutes per month for 3 years</t>
   </si>
   <si>
@@ -770,19 +526,9 @@
     <t>Stap 3.  &lt;a href=/register&gt;Registreer&lt;/a&gt; &amp; bevestig uw toestemming </t>
   </si>
   <si>
-    <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: Dit is een methode om de hersenactiviteit te meten, waarbij zwakke elektrische signalen die de hersenen produceren met behulp van elektroden op de hoofdhuid worden geregistreerd. De methode wordt niet-invasief genoemd, wat in dit verband inhoudt dat alle metingen vanaf de buitenkant van uw hoofd kunnen worden verricht. Tijdens deze metingen wordt een aantal elektroden (tussen 32 - 64) op de hoofdhuid geplaatst om de hersenactiviteit te meten terwijl u bepaalde taken uitvoert, zoals reageren op een geluidstoon die via een koptelefoon wordt afgespeeld of aanraking van de vingertoppen met behulp van kleine magneten. Tijdens deze metingen zullen we u ook vragen om uw eigen smartphone te gebruiken om de hersensignalen te registreren die optreden in samenhang met het gebruik van de telefoon dat ook met de achtergrond-App wordt geregistreerd. Ter voorbereiding op deze metingen moet u aankomen met gewassen haar dat bij voorkeur een paar uur voor aanvang van het experiment al is gedroogd. Verder zullen we de huid waar de EEG-elektroden worden aangebracht vooraf reinigen met medische alcohol. Tijdens de EEG-sessie worden de volgende extra gegevens verzameld: bewegingssensormetingen van de armen en handen en een drie-dimensionele opname van de vorm van uw hoofd met de EEG-elektrode-locaties. Tijdens deze 3D-scan zullen we uw gezicht bedekken met een medisch wegwerpmasker.</t>
-  </si>
-  <si>
-    <t>&lt;a href=/eeg&gt;EEG&lt;/a&gt;: This is a method of measuring brain activity that scans for the small electrical signal changes generated by the brain and detectable on the scalp using specialized electrodes. The method is referred to as non-invasive, which in this situation means that all recordings can be taking place from the outside of the head. During these measures, a number of electrodes (between 32 – 64) will be placed on the scalp to record brain activity as you perform certain behavioral tasks such as respond to a sound tone delivered through earphones or touch of the finger tips using tiny magnets. During these measures, we shall also instruct you to use your own smartphone to capture the corresponding brain signals with the background App running to capture the phone behavior. In preparation for these measurements, you would need to
-arrive with your hair washed and dried; preferably dried a few hours before the experiment begins. Furthermore, we shall clean the skin areas connecting with the EEG electrodes using medical-grade alcohol. During the EEG session, the following additional data will be gathered: movement sensor recordings from the arms and hands and the 3D model of your scalp with the EEG electrode locations. During the 3D scanning to create your scalp model we will cover your face using a disposable medical mask.</t>
-  </si>
-  <si>
     <t>In case volunteering for in lab measures: you have highly sensitive skin</t>
   </si>
   <si>
-    <t>The compensations are calculated based on the rate of 3.50 EUR per 30 min of online experimentation and 7.50 EUR per hour for EEG experiments. Moreover, for the online tests (as they sometimes take only 10 min), an indicator will show you the compensation amount accumulated. For the online test, only a maximum of one test can be rewarded per month but you can choose to do more without any compensation.</t>
-  </si>
-  <si>
     <t>Arko Ghosh, Afdeling Cognitieve Psychologie, Instituut Psychologie, Universiteit Leiden agestudy@fsw.leidenuniv.nl</t>
   </si>
   <si>
@@ -795,26 +541,518 @@
     <t>p24b</t>
   </si>
   <si>
-    <t>For University of Leiden students performing online tasks, the following reward structure applies. 1 Credit is offered for 30 min of online tasks. This corresponds to performing 2 recommended online tasks for 1 Credit, and a maximum of 4 credits can be obtained by performing 8 recommended tasks. The minimum duration for remaining in the study to receive any credit is 2 months. It is possible to remain in the study for paid or voluntary participation upon termination of the credit period and then general participation commitment applies.</t>
-  </si>
-  <si>
     <t xml:space="preserve">U kunt ook een beloning van 5 euro verdienen door iemand succesvol naar de het onderzoek te verwijzen. Deze beloning is alleen beschikbaar als u in Nederland woont (dat geldt voor elke betaling voor deze studie). Een verwijzing geldt alleen als succesvol als de persoon die verwezen is tijdens de registratie de unieke promotiecode invoert die u hebt gegeven, en een jaar lang deel blijft nemen aan het onderzoek. Na deze periode kan de beloning worden opgevraagd onder vermelding van de bankgegevens, zoals hierboven is uitgelegd. U kunt het aantal verwijzingen altijd inzien op uw dashboard (als u ingelogd bent). Zodra het beoogde aantal deelnemers bereikt is zal de mogelijkheid om geld te krijgen voor verwijzingen worden beëindigd. Hierover word u expliciet geïnformeerd via uw dashboard (als u ingelogd bent). Het staat u vrij om wel of niet mee te doen met het verwijzen van deelnemers. Dit heeft verder geen gevolgen voor de studie. </t>
   </si>
   <si>
-    <t>Voor studenten van de Universiteit Leiden die aan online taken deelnemen gelden de volgende beloningsregels. Er wordt 1 SONA credit toegekend voor 30 minuten online-testdeelname. Dit komt overeen met het doorlopen van twee aanbevolen online tests voor 1 credit. Er kunnen maximaal 4 credits worden behaald door 8 aanbevolen taken uit te voeren. U moet minimaal twee maanden aan de studie blijven deelnemen om credits te kunnen verdienen. Na de minimum periode die voor credit beloning geldt is het mogelijk om betaald of vrijwillig door te gaan met de studie. Vanaf dat moment gelden de algemene deelnameregels.</t>
-  </si>
-  <si>
-    <t>You use an iPhone or another smartphone that is not operating on Android (i.e. only Android phones can participate)</t>
-  </si>
-  <si>
-    <t>U gebruikt een iPhone of een ander smartphone dat geen Android besturingssysteem heeft (d.w.z. alleen Android smartphones kunnen deelnemen)</t>
+    <t>November 2023, Leiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for considering to participate in our study directed towards how brain and behavior alter across the life span – as we age. This study has two parts in terms of the tests conducted and physical location – one part is conducted in the laboratory and the other part is conducted online. &lt;b&gt;You may choose to participate in one or both parts &lt;/b&gt;. While we look forward to explaining the details of the experiment please note that &lt;u&gt;it is not mandatory to participate in this study, you can choose to withdraw at any time&lt;/u&gt; and you can ask us further questions through the entire study. There is no known medical benefit of participating in these experiments. However, as any remuneration associated with the study depends on your participation and as it takes considerable time to prepare and conduct these experiments, we would much appreciate that you carefully read this document before committing to our study. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The minimum requirement for participation – and if possible renumeration is to engage in at least ONE test per month which lasts for a maximum of &lt;b&gt;15 minutes&lt;/b&gt;. If you additionally choose to visit us in Leiden for an EEG measurement, the measurement lasts for 4 hours per session (and depends on the availability of measurement resources). These are the targeted durations for the study, but you may choose to take the online tests more frequently without receiving any additional reward and also engage in more frequent EEG measures if resources are available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study occurs online, and if you choose you can additionally participate in the laboratory-based measures conducted at Leiden University (Institute of Psychology, Wassenaarseweg 52).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throughout this study period, your email address will be stored for communication purposes. At the end of the study period, the link between this address and all correspondences will be deleted. The data will be collected using random identifiers such as ‘AG99’ or ‘138uue000jxiii19920’. As your email is the primary method for us to communicate with you please do remember to check it during the study period. We will communicate with you via agestudy@fsw.leidenuniv.nl . Please note that this shared mailbox is visible to the research team at Leiden University.  At Leiden, we will store your email address (disconnected from any other information) on a secure computer only accessible by the staff at Leiden University. This email may be used in the future to communicate after the study period to either inform of a renewal or to participation in a follow-up study.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demographic information using a questionnaire including age (in year/month resolution) and gender.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone usage questionnaire. In this questionnaire, you will be asked about how you use your smartphone.  </t>
+  </si>
+  <si>
+    <t>Quality of life questionnaire. In this questionnaire, you will be asked about your day to day living conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory tests. We will use two tests where you recall recently presented stimuli – such as a letter or pattern – to assess your memory and also your general sensorimotor functions.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task switching. We will evaluate your ability to switch between tasks as you perform two tasks in parallel – to identify a specific pattern of letters vs. numbers.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will be asked to install an App (TapCounter) which is designed and implemented by a University of Zurich spinoff QuantActions AG (Zurich, Switzerland). This App tracks your behavior on the smartphone and/or tablet in the background using a unique identifier (such as 138xxxiwhhwhh992ef). The following information is gathered by the App and made available to the research team associated with the unique identifier: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The unique identifier randomly generated by the App as in 138xxxiwhhwhh992ef. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer and model of the smartphone as in SAMSUNG A10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android operating system version number as in version 10.0. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The timestamp of the touchscreen touch as in 20th Jan 2020, 10h,5m,10s,5ms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The label of the App in use as in Facebook or Weather.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your phone was used in portrait or landscape mode.  </t>
+  </si>
+  <si>
+    <t>p_android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are an Android user please see below:  </t>
+  </si>
+  <si>
+    <t>p_apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are an iOS (iPhone) user please see below: </t>
+  </si>
+  <si>
+    <t>Please note that ‘4’ and ‘5’ enable us to derive more information such as tapping speed, adjusted according to the type of App in use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All data is encrypted on the phone and stored securely after un-encryption in Microsoft Azure (operated by QuantActions AG) servers under random codes generated by the App. The data is transmitted from your phone to the cloud preferably in the presence of Wi-Fi connectivity. At no point can these secure servers (operating under the highest-grade industry certifications) link to the email address/es provided by you. This email address to the phone data link is only temporarily made via yet another code when the data is downloaded to a local computer at Leiden University. This allows us to interact with you in case data collection is disrupted or to provide further instructions such as reminders if the expected data is not met. At the same time, it ensures your email address can be never linked to the smartphone data by anyone else other than members of the research team at Leiden. Once the data collection is completed or terminated by you the email will be entirely disconnected from the smartphone data (and in fact all other data) through deletion of the email information and email correspondences.  </t>
+  </si>
+  <si>
+    <t>p_both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For both iOS and Android users:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short diary on significant life events </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have been affected by any major life event such as birth, marriage, death of a friend or family member, loss of job, injury, hospitalization or change in residence, please record the time and the nature of event (without mentioning any names or location) in the ‘Notes’ feature of the TapCounter App. Remember, these notes may not be read instantaneously so please use email rather than notes for any correspondence. Although we actively discourage you from entering any personal details like names, dates of birth, email addresses, etc., it is possible that you mistakenly enter personal information here. To ensure your privacy is protected under these circumstances, we will a. never release these notes beyond the research team without first filtering out any unintentionally entered personal details b. use highly secure handling of the data along with industry-standard encryption during transmission.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href=/eeg&gt;EEG&lt;/a&gt;: This is a non-invasive method of measuring brain activity that scans for the small electrical signal changes generated by the brain and detectable on the scalp using specialized electrodes. During these measures, a number of electrodes (between 32 – 64) will be placed on the scalp to record brain activity as you perform certain behavioral tasks such as respond to a sound tone delivered through earphones or tactile stimulation using tiny magnets placed on the fingertips. During these measures, we shall also instruct you to use your own smartphone to capture the corresponding brain signals with the background App running to capture the phone behavior. In preparation for these measurements, you would need to arrive with your hair washed and dried; preferably dried a few hours before the experiment begins. Furthermore, we shall clean the skin areas connecting with the EEG electrodes using medical-grade alcohol. During the EEG session, the following additional data will be gathered: movement sensor recordings from the arms and hands and the 3 d model of your scalp with the EEG electrode locations. During the 3D scanning to create your scalp model we will cover your facial features using a disposable medical mask.  </t>
+  </si>
+  <si>
+    <t>qMCI: This short – 5 min – questionnaire will assess your rough mental status on the day of the EEG experimentation when you visit us in Leiden.</t>
+  </si>
+  <si>
+    <t>Data distribution and handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study will gather data in a coded manner from multiple sources as mentioned above using different software service providers. Irrespective of the form of collection, all of your data will be pooled together on the local computers at Leiden University under unique participation numbers. Below we shall outline the storage of the separate sources and how it is all distributed further to the scientific community and public at large.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following are the three distinct service providers and the corresponding data handling: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuantActions, Switzerland (TapCounter App). The smartphone data will be stored for a minimum of 5 years on an Microsoft Azure cloud storage (location EU) linked to the TapCounter App via QuantActions. On this isolated smartphone database, the data will always remain disconnected from your email address and after the study completion, the participation IDs will be further deleted on the cloud to render it truly anonymous.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The University of Leiden and IBM cloud or similar. All the email correspondences and email addresses stored in agestudy@fsw.leidenuniv.nl will be deleted at the end of the study period. </t>
+  </si>
+  <si>
+    <t>Moreover, the email address stored in the cloud (located in the EU and disconnected database than the one used for handling smartphone data via Quantactions) used during the signing up on the online testing platform will also be deleted at the end of the study period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furthermore, any data which forms the basis of a discovery reported to the public will be uploaded on public data repositories and on to Dataverse, as per the policies of the Journals that communicate the findings and the unit of Cognitive Psychology. The data will be released using data identifiers which are distinct from the unique identifiers generated by the app but such that it would allow to connect the data when released across separate studies. The repositories can host data indefinitely.  </t>
+  </si>
+  <si>
+    <t>p19b</t>
+  </si>
+  <si>
+    <t>p19c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next to the research data that are being collected to answer the research questions, a number of additional personal data will be collected in the context of the payout of participant compensation (Address, IBAN bank account number and registered name for this bank account). These personal data will be saved separately from the research data and will be shared with the financial administration of Leiden University, who will pass this information on to the Tax Department. The University is legally obliged to report the participant compensation to the Tax Department. Whether or not the Tax Department will make you pay taxes on these cash payments, will depend on your personal situation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can also participate in this study without any compensation. At the time of enrolment, we will clearly indicate if compensation is possible.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If participating in the online-only part of the study the compensation is 80 EUR spread over three years. If participating in the EEG experiments in addition, the compensation is 170 EUR spread over three years (under the assumption of 4 hours of participation per year). You may choose to collect your compensation once a year or wait until the end of the study. The annual targets of one test per month must be met to receive the compensation. Exceptions (for instance, missed tests due to illness or vacations) will be explicitly approved by the research team.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The compensations are calculated based on the rate of 3.50 EUR per 30 min of online experimentation and 7.50 EUR per h for EEG experiments. Moreover, for the online tests (as they sometimes take only 10 min), an indicator will show you the compensation amount accumulated. For the online test, only a maximum of one test can be rewarded per month but you can choose to do more without any compensation.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For University of Leiden students performing online tasks, the following reward structure applies. 1 Credit is offered for 30 min of online tasks. This corresponds to performing 2 recommended online tasks for 1 Credit, and a maximum of 4 credits can be obtained by performing 8 recommended tasks. The minimum duration for remaining in the study to receive any credit is 2 months. It is possible to remain in the study for paid or voluntary participation upon termination of the credit period and then general participation commitment applies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can withdraw at any time. To withdraw from the study, simply send an email to the research team or uninstall the App. You do not need to provide us with any reasons for your withdrawal but if you provide one, we shall record the reason along with the historical (pre-withdrawal) data. In case the withdrawal is via uninstallation of the app, the research team may contact you via email to confirm the withdrawal. These are the consequences of the withdrawal: </t>
+  </si>
+  <si>
+    <t>Any app data collected &lt;b&gt;after&lt;/b&gt; the withdrawal is deleted.</t>
+  </si>
+  <si>
+    <t>You will get a written confirmation of the withdrawal.</t>
+  </si>
+  <si>
+    <t>Your email and all correspondences are deleted pending compensation.</t>
+  </si>
+  <si>
+    <t>Your data is rendered anonymous for long-term storage, analysis and distribution.</t>
+  </si>
+  <si>
+    <t>You will get compensation according to the set rate if you have participated for at least 1 year.</t>
+  </si>
+  <si>
+    <t>All data collected prior to the withdrawal is not deleted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As mentioned in ‘f’, we are unable to delete your historical data mainly as the data is intermittently processed and the partial data is routinely backed-up on local computers at Leiden University after true anonymization (by deletion of the email address to ID link). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For more information on data privacy and your rights, please check the European Union’s data privacy law, known as the General Data Protection Regulation (“GDPR”). </t>
+  </si>
+  <si>
+    <t>p27b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All experiments require your explicit consent. For online experiments, you will consent with a ‘check’ mark and for EEG experiments we will verify your consent with a signature on paper. The consent documentation will be stored under a unique participation number provided to you at the time of the sign-up for future reference.  </t>
+  </si>
+  <si>
+    <t>p30</t>
+  </si>
+  <si>
+    <t>p31</t>
+  </si>
+  <si>
+    <t>You can also contact Arko Ghosh if you have a complaint. If you prefer not to do so, you can contact the Contact point for research participants at the Faculty of Social Sciences of Leiden University: contactpuntparticipanten@fsw.leidenuniv.nl.</t>
+  </si>
+  <si>
+    <r>
+      <t>If you have any questions or complaints about your privacy or the processing of your personal data, you can contact the privacy officer of Leiden University: privacy@bb.leidenuniv.nl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0078D4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>pa_1</t>
+  </si>
+  <si>
+    <t>li_apple_1</t>
+  </si>
+  <si>
+    <t>li_apple_2</t>
+  </si>
+  <si>
+    <t>li_apple_3</t>
+  </si>
+  <si>
+    <t>li_apple_4</t>
+  </si>
+  <si>
+    <t>li_apple_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The timing of each touchscreen interaction on the provided keyboard. </t>
+  </si>
+  <si>
+    <t>The time zone of the user’s device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing of the ‘delete’ key. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The timing of a swipe event or the timing if you use autocorrection. </t>
+  </si>
+  <si>
+    <t>li_apple_6</t>
+  </si>
+  <si>
+    <t>li_apple_7</t>
+  </si>
+  <si>
+    <t>li_apple_8</t>
+  </si>
+  <si>
+    <t>li_apple_9</t>
+  </si>
+  <si>
+    <t>li_apple_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The model of the mobile device on which the app is installed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The log of battery status.  </t>
+  </si>
+  <si>
+    <t>The label of the App in which the provided keyboard is used, as in Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data from the CoreMotion API provided by the iOS – all capturing body movements:  </t>
+  </si>
+  <si>
+    <t>li_apple_8_1</t>
+  </si>
+  <si>
+    <t>li_apple_8_2</t>
+  </si>
+  <si>
+    <t>li_apple_8_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerometer  </t>
+  </si>
+  <si>
+    <t>Pedometer</t>
+  </si>
+  <si>
+    <t>Gyroscope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotionActivity': labels such as walking, on a car, on a train etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data from the HealthKit SleepAnalysis API provided by the iOS – quantifying sleep:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep onset  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep offset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep quality  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data from the ScreenTime API provided by the iOS – quantifying screen time: </t>
+  </si>
+  <si>
+    <r>
+      <t>The time spent on the phone per app. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0078D4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Items 8-10 allow us to infer the probability of smartphone usage when not on the keyboard and to quantify the behavioral context surrounding smartphone interactions. No personally identifiable content as in text messages, images, browsing history or contact information is ever collected. </t>
+  </si>
+  <si>
+    <t>li_apple_8_4</t>
+  </si>
+  <si>
+    <t>li_apple_9_1</t>
+  </si>
+  <si>
+    <t>li_apple_9_2</t>
+  </si>
+  <si>
+    <t>li_apple_9_3</t>
+  </si>
+  <si>
+    <t>li_apple_10_1</t>
+  </si>
+  <si>
+    <t>pa_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit onderzoek vindt online plaats, en als u dat wilt, kun je ook deelnemen aan de laboratoriumtests uitgevoerd aan de Universiteit Leiden (Instituut Psychologie, Wassenaarseweg 52). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedankt voor het overwegen om deel te nemen aan ons onderzoek naar hoe hersenen en gedrag veranderen gedurende de levensduur - naarmate we ouder worden. Dit onderzoek heeft twee delen wat betreft de uitgevoerde tests en fysieke locatie - een deel wordt uitgevoerd in het laboratorium en het andere deel online. U kunt ervoor kiezen om deel te nemen aan één of beide delen. Hoewel we ernaar uitkijken om de details van het experiment uit te leggen, merk op dat het niet verplicht is om deel te nemen aan dit onderzoek. U kunt op elk moment besluiten terug te trekken en u kunt ons gedurende het hele onderzoek verdere vragen stellen. Er is geen bekend medisch voordeel verbonden aan deelname aan deze experimenten. Echter, aangezien eventuele vergoedingen gekoppeld zijn aan deelname en omdat het aanzienlijke tijd kost om deze experimenten voor te bereiden en uit te voeren, zouden we het zeer op prijs stellen als u dit document zorgvuldig leest voordat u besluit deel te nemen aan ons onderzoek. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit onderzoek is ontworpen om de gedrags- en cognitieve veranderingen vast te leggen die optreden bij normaal/gezond ouder worden. De beoogde observatieperiode is drie jaar, maar als de studieomstandigheden dat toelaten, kunt u vrijwillig uw deelname verlengen. Om de gedragsveranderingen vast te leggen, zullen we dagelijkse gedragslogs van smartphones en/of tablets exploiteren - die gedurende de hele onderzoeksperiode actief zullen blijven. Deze logs stellen ons in staat om bijvoorbeeld vast te leggen hoe jouw snelheid van presteren op het aanraakscherm verandert met de leeftijd. Het onderzoek maakt ook gebruik van online cognitieve tests die eenmaal per maand gedurende de hele studieperiode worden uitgevoerd. Als u deelneemt aan de niet-invasieve hersenmetingen (optioneel, EEG), zal u bovendien tijd doorbrengen in en rond het laboratorium met uw eigen smartphone terwijl we de hersensignalen vastleggen, en deze sessies zullen ongeveer eenmaal per jaar plaatsvinden gedurende de onderzoeksperiode. Deze uitgebreide gegevensverzameling wordt verwacht inzicht te geven in hoe jouw gedrag verandert met de leeftijd en zal helpen de veranderingen in de hersenen te verfijnen die bijdragen aan deze veranderingen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De minimale vereiste voor deelname - en indien mogelijk vergoeding - is deelname aan minstens ÉÉN test per maand, die maximaal 15 minuten duurt. Als u er bovendien voor kiest om ons te bezoeken in Leiden voor een EEG-meting, duurt de meting 4 uur per sessie (en is afhankelijk van de beschikbaarheid van meetmiddelen). Dit zijn de beoogde duur van het onderzoek, maar u kunt ervoor kiezen om de online tests vaker af te leggen zonder extra beloning en ook vaker deel te nemen aan EEG-metingen als de middelen beschikbaar zijn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedurende de onderzoeksperiode wordt uw e-mailadres opgeslagen voor communicatiedoeleinden. Aan het einde van de onderzoeksperiode wordt de koppeling tussen dit adres en alle correspondentie verwijderd. De gegevens worden verzameld met willekeurige identificatoren zoals 'AG99' of '138uue000jxiii19920'. Aangezien uw e-mail het primaire communicatiemiddel is, vergeet dan niet om het te controleren tijdens de onderzoeksperiode. We zullen met u communiceren via agestudy@fsw.leidenuniv.nl. Houd er rekening mee dat deze gedeelde mailbox zichtbaar is voor het onderzoeksteam aan de Universiteit Leiden. In Leiden zullen we uw e-mailadres (losgekoppeld van andere informatie) opslaan op een beveiligde computer die alleen toegankelijk is voor het personeel van de Universiteit Leiden. Dit e-mailadres kan in de toekomst worden gebruikt voor communicatie na de onderzoeksperiode, om u te informeren over een vernieuwing of deelname aan een vervolgstudie. </t>
+  </si>
+  <si>
+    <t>Ons online platform (agestudy.nl - in aanbouw) zal een reeks korte vragenlijsten en tests presenteren. Het doel van deze tests wordt hier samengevat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demografische informatie met behulp van een vragenlijst, inclusief leeftijd (in jaar/maandresolutie) en geslacht. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vragenlijst over smartphonegebruik. Hierin wordt u gevraagd naar uw gebruik van de smartphone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vragenlijst over de kwaliteit van leven. Hierin wordt u gevraagd naar uw dagelijkse leefomstandigheden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geheugentests. We zullen twee tests gebruiken waarbij u zich recent gepresenteerde stimuli herinnert - zoals een letter of patroon - om uw geheugen en algemene sensorimotorische functies te beoordelen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taakwisseling. We zullen uw vermogen evalueren om tussen taken te schakelen terwijl u twee taken parallel uitvoert - het identificeren van een specifiek patroon van letters versus cijfers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone-app die op de achtergrond werkt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als u een Android-gebruiker bent, zie hieronder: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U wordt gevraagd om een app (TapCounter) te installeren die is ontworpen en geïmplementeerd door een spin-off van de Universiteit van Zürich, QuantActions AG (Zürich, Zwitserland). Deze app volgt uw gedrag op de smartphone en/of tablet op de achtergrond met gebruik van een unieke identifier (zoals 138xxxiwhhwhh992ef). De volgende informatie wordt door de app verzameld en beschikbaar gesteld aan het onderzoeksteam in verband met de unieke identifier: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of uw telefoon in portret- of landschapsmodus werd gebruikt. </t>
+  </si>
+  <si>
+    <t>Het label van de App die in gebruik is zoals Facebook of Weer.</t>
+  </si>
+  <si>
+    <t>Het tijdstip van elke aanraking van de touchscreen, zoals op 20 januari, 10u, 5m,10s,5ms.</t>
+  </si>
+  <si>
+    <t>Het versienummer van het Android besturingssysteem version zoals versie 10.0.</t>
+  </si>
+  <si>
+    <t>De fabrikant en het model van de smartphone zoals SAMSUNG A10.</t>
+  </si>
+  <si>
+    <t>De unieke deelnemerscode die door de App willekeurig wordt aangemaakt, bijvoorbeeld 138xxxiwhhwhh992ef.</t>
+  </si>
+  <si>
+    <t>Let op: '4' en '5' maken het mogelijk om meer informatie uit af te leiden, zoals de snelheid van het typen, aangepast aan het type App dat in gebruik is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als u een iOS (iPhone)-gebruiker bent, zie hieronder: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing van elke aanraakinteractie op het verstrekte toetsenbord. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tijdzone van het apparaat van de gebruiker. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing van de 'delete'-toets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timing van een veeggebeurtenis of timing als u autocorrectie gebruikt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model van het mobiele apparaat waarop de app is geïnstalleerd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logboek van de batterijstatus. </t>
+  </si>
+  <si>
+    <t>Naam van de app waarin het verstrekte toetsenbord wordt gebruikt, zoals Facebook.</t>
+  </si>
+  <si>
+    <t>Gegevens van de CoreMotion API geleverd door iOS - allemaal het vastleggen van lichaamsbewegingen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versnellingsmeter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stappenteller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyroscoop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotionActivity': labels zoals lopen, in een auto, in een trein, enz. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gegevens van de HealthKit SleepAnalysis API geleverd door iOS - kwantificering van slaap: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontwakingstijd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slaapkwaliteit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gegevens van de ScreenTime API geleverd door iOS - kwantificering van schermtijd: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tijd besteed aan de telefoon per app. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items 8-10 stellen ons in staat om de waarschijnlijkheid van smartphonegebruik buiten het toetsenbord te infereren en de gedragscontext rond smartphone-interacties te kwantificeren. Er wordt nooit persoonlijk identificeerbare inhoud, zoals tekstberichten, afbeeldingen, browsegeschiedenis of contactinformatie, verzameld. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voor zowel iOS- als Android-gebruikers: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle gegevens zijn versleuteld op de telefoon en worden veilig opgeslagen na ontsleuteling op Microsoft Azure-servers (beheerd door QuantActions AG) onder willekeurige codes gegenereerd door de app. De gegevens worden bij voorkeur overgedragen vanaf uw telefoon naar de cloud in aanwezigheid van Wi-Fi-connectiviteit. Op geen enkel moment kunnen deze beveiligde servers (die voldoen aan de hoogste branchecertificeringen) worden gekoppeld aan het e-mailadres dat door u is verstrekt. Deze koppeling tussen e-mailadres en telefoongegevens wordt slechts tijdelijk gemaakt via nog een andere code wanneer de gegevens worden gedownload naar een lokale computer aan de Universiteit Leiden. Dit stelt ons in staat om met u te communiceren in geval van onderbreking van gegevensverzameling of om verdere instructies te geven, zoals herinneringen als de verwachte gegevens niet worden behaald. Tegelijkertijd zorgt dit ervoor dat uw e-mailadres nooit kan worden gekoppeld aan de smartphonegegevens door iemand anders dan leden van het onderzoeksteam in Leiden. Zodra de gegevensverzameling is voltooid of door u is beëindigd, wordt het e-mailadres volledig losgekoppeld van de smartphonegegevens (en in feite van alle andere gegevens) door verwijdering van de e-mailinformatie en e-mailcorrespondentie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korte dagboeknotities over belangrijke levensgebeurtenissen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als u bent beïnvloed door een belangrijke levensgebeurtenis, zoals geboorte, huwelijk, overlijden van een vriend of familielid, verlies van werk, letsel, ziekenhuisopname of verandering van woonplaats, registreer dan het tijdstip en de aard van het evenement (zonder namen of locaties te vermelden) in de 'Notes'-functie van de TapCounter App. Onthoud dat deze notities niet onmiddellijk worden gelezen, dus gebruik e-mail in plaats van notities voor correspondentie. Hoewel we u actief ontmoedigen om persoonlijke gegevens zoals namen, geboortedata, e-mailadressen, enzovoort in te voeren, is het mogelijk dat u per ongeluk persoonlijke informatie invoert. Om ervoor te zorgen dat uw privacy wordt beschermd onder deze omstandigheden, zullen we a. deze notities nooit vrijgeven buiten het onderzoeksteam zonder eerst alle onbedoeld ingevoerde persoonlijke details te filteren b. zeer veilige verwerking van de gegevens gebruiken, samen met industriestandaardversleuteling tijdens verzending. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href=/eeg&gt;EEG&lt;/a&gt;: Dit is een niet-invasieve methode om hersenactiviteit te meten door kleine elektrische signaalveranderingen te scannen die door de hersenen worden gegenereerd en detecteerbaar zijn op de schedel met gespecialiseerde elektroden. Tijdens deze metingen worden een aantal elektroden (tussen 32 en 64) op de schedel geplaatst om hersenactiviteit op te nemen terwijl u bepaalde gedragstaken uitvoert, zoals reageren op een geluidstoon via oortelefoons of tactiele stimulatie met kleine magneten op de vingertoppen. Tijdens deze metingen zullen we u ook instrueren om uw eigen smartphone te gebruiken om de overeenkomstige hersensignalen vast te leggen met de achtergrondapp die draait om de telefoongedrag vast te leggen. Voorbereidend op deze metingen dient u met gewassen en gedroogd haar aan te komen; bij voorkeur enkele uren voor aanvang van het experiment gedroogd. Bovendien zullen we de huidgebieden die in contact komen met de EEG-elektroden reinigen met medische alcohol. Tijdens de EEG-sessie worden ook de volgende aanvullende gegevens verzameld: bewegingssensoropnames van de armen en handen en het 3D-model van uw schedel met de locaties van de EEG-elektroden. Tijdens het scannen in 3D om uw schedelmodel te creëren, zullen we uw gezichtskenmerken bedekken met een wegwerpmasker voor medisch gebruik.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qMCI (optioneel en afhankelijk van de beschikbaarheid van middelen): Deze korte vragenlijst van 5 minuten evalueert uw ruwe cognitieve status op de dag van het EEG-experiment of de geldinzameling wanneer u ons bezoekt in Leiden.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datadistributie en -behandeling </t>
+  </si>
+  <si>
+    <t>Deze studie zal gegevens op gecodeerde wijze verzamelen uit verschillende bronnen zoals hierboven vermeld, met behulp van verschillende software serviceproviders. Ongeacht de verzamelingsvorm worden al uw gegevens samengevoegd op lokale computers aan de Universiteit Leiden onder unieke deelnemersnummers. Hieronder zullen we de opslag van de afzonderlijke bronnen en de verdere distributie naar de wetenschappelijke gemeenschap en het grote publiek uiteenzetten. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De volgende zijn de drie verschillende dienstverleners en de bijbehorende gegevensverwerking: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuantActions, Zwitserland (TapCounter App). De smartphonegegevens worden gedurende minimaal 5 jaar opgeslagen op een Microsoft Azure-cloudopslag (locatie EU) gekoppeld aan de TapCounter App via QuantActions. Op deze geïsoleerde smartphone-database blijven de gegevens altijd losgekoppeld van uw e-mailadres, en na voltooiing van de studie worden de deelnemers-ID's verder verwijderd op de cloud om het echt anoniem te maken.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psytoolkit.org, Straatsburg (Online tests). De gecodeerde gegevens van online tests worden tijdelijk opgeslagen op de onderzoeksserver beheerd door Psytoolkit.org (Straatsburg) en opgeslagen binnen het VK/EU totdat ze in Leiden worden gedownload. De server wordt beheerd door prof. Sijsbert Stoet. De gegevens op de Psytoolkit-server worden losgekoppeld van alle demografische informatie of e-mail. Na voltooiing van de gegevensverzameling worden de gegevens van deze server verwijderd en volgens Psytoolkit duurt het 24 uur voordat deze verwijdering van invloed is op hun servers. Daarom worden de langetermijngegevens opgeslagen in Leiden en vanuit Leiden vrijgegeven.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universiteit Leiden en IBM-cloud of vergelijkbaar. Alle e-mailcorrespondentie en e-mailadressen opgeslagen in agestudy@fsw.leidenuniv.nl worden verwijderd aan het einde van de onderzoeksperiode. Bovendien wordt het e-mailadres opgeslagen in de cloud (gelegen in de EU en losgekoppeld van de database die wordt gebruikt voor het verwerken van smartphonegegevens via Quantactions) tijdens de aanmelding op het online testplatform ook verwijderd aan het einde van de onderzoeksperiode.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle gegevens en de bijbehorende analyse worden gerapporteerd aan het publiek in geanonimiseerde vorm. Wanneer anoniem gedeponeerd op een openbaar platform, kunnen uw gegevens verder worden verwerkt door de wetenschappelijke gemeenschap om nieuwe gedragspatronen of nieuwe hersen-gedragsrelaties te ontdekken en hoe deze veranderen met de leeftijd.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bovendien zal enige data die de basis vormt van een ontdekking die wordt gerapporteerd aan het publiek, worden geüpload naar openbare gegevensrepositories en naar Dataverse, volgens het beleid van de tijdschriften die de bevindingen communiceren en de eenheid Cognitieve Psychologie. De gegevens worden vrijgegeven met behulp van gegevensidentificatoren die verschillen van de unieke identificatoren gegenereerd door de app, maar zodanig dat ze de gegevens kunnen verbinden wanneer ze worden vrijgegeven over verschillende studies heen. De repositories kunnen gegevens onbeperkt hosten.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naast de onderzoeksgegevens die worden verzameld om de onderzoeksvragen te beantwoorden, worden een aantal aanvullende persoonlijke gegevens verzameld in het kader van de uitbetaling van deelnemerscompensatie (adres, IBAN-bankrekeningnummer en geregistreerde naam voor deze bankrekening). Deze persoonlijke gegevens worden apart opgeslagen van de onderzoeksgegevens en worden gedeeld met de financiële administratie van de Universiteit Leiden, die deze informatie doorgeeft aan de Belastingdienst. De universiteit is wettelijk verplicht de deelnemerscompensatie aan de Belastingdienst te melden. Of de Belastingdienst u belasting laat betalen over deze contante betalingen, hangt af van uw persoonlijke situatie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bij deelname aan het online gedeelte van de studie is de compensatie 80 EUR verspreid over drie jaar. Bij deelname aan de EEG-experimenten daarnaast is de compensatie 170 EUR verspreid over drie jaar (onder de veronderstelling van 4 uur deelname per jaar). U kunt ervoor kiezen om uw compensatie jaarlijks te ontvangen of te wachten tot het einde van de studie. De jaarlijkse doelen van één test per maand moeten worden behaald om de compensatie te ontvangen. Uitzonderingen (bijvoorbeeld gemiste tests vanwege ziekte of vakantie) worden expliciet goedgekeurd door het onderzoeksteam. De vergoedingen worden berekend op basis van het tarief van 3,50 EUR per 30 minuten online experiment en 7,50 EUR per uur voor EEG-experimenten. Bovendien zal voor de online tests (omdat ze soms slechts 10 minuten duren) een indicator u het opgebouwde compensatiebedrag tonen. Voor de online test kan slechts één test per maand worden beloond, maar u kunt ervoor kiezen om er meer te doen zonder enige compensatie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voor studenten van de Universiteit Leiden die online taken uitvoeren, geldt de volgende beloningsstructuur. 1 Credit wordt aangeboden voor 30 minuten online taken. Dit komt overeen met het uitvoeren van 2 aanbevolen online taken voor 1 Credit, en een maximum van 4 credits kan worden verkregen door 8 aanbevolen taken uit te voeren. De minimale duur om in de studie te blijven om enige credit te ontvangen is 2 maanden. Het is mogelijk om na afloop van de creditperiode in de studie te blijven voor betaalde of vrijwillige deelname, en dan geldt de algemene deelnameverplichting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U kunt op elk moment terugtreden. Om u terug te trekken uit de studie, stuurt u eenvoudig een e-mail naar het onderzoeksteam of verwijdert u de app. U hoeft ons geen redenen voor uw terugtrekking te verstrekken, maar als u dat wel doet, zullen we de reden noteren samen met de historische (pre-terugtrekking) gegevens. In geval van terugtrekking via deinstallatie van de app kan het onderzoeksteam contact met u opnemen via e-mail om de terugtrekking te bevestigen. Dit zijn de gevolgen van de terugtrekking: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voor meer informatie over gegevensprivacy en uw rechten, raadpleegt u alstublieft de wetgeving inzake gegevensbescherming van de Europese Unie, bekend als de Algemene Verordening Gegevensbescherming (“AVG”). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voor alle experimenten is uw expliciete toestemming vereist. Voor online experimenten geeft u toestemming met een 'vinkje' en voor EEG-experimenten verifiëren we uw toestemming met een handtekening op papier. De toestemmingsdocumentatie wordt opgeslagen onder een uniek deelnemersnummer dat aan u wordt verstrekt bij aanmelding voor toekomstige referentie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U kunt ook contact opnemen met Arko Ghosh als u een klacht heeft. Als u dat liever niet doet, kunt u contact opnemen met het Contactpunt voor onderzoeksdeelnemers van de Faculteit Sociale Wetenschappen van de Universiteit Leiden: Contactpuntparticipanten@fsw.leidenuniv.nl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als u vragen of klachten heeft over uw privacy of de verwerking van uw persoonlijke gegevens, kunt u contact opnemen met de privacyfunctionaris van de Universiteit Leiden: privacy@bb.leidenuniv.nl </t>
+  </si>
+  <si>
+    <t>Slaaptijd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,6 +1210,33 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.5"/>
+      <color rgb="FF0078D4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF0078D4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1315,7 +1580,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1326,6 +1591,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1681,19 +1949,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1715,40 +1983,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1759,51 +2027,51 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1814,18 +2082,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1833,847 +2101,1123 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>244</v>
+      </c>
+      <c r="B53" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
         <v>204</v>
       </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C75" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
         <v>216</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C86" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" t="s">
+        <v>224</v>
+      </c>
+      <c r="C105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="C106" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C108" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B111" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B112" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>252</v>
-      </c>
-      <c r="C61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>254</v>
-      </c>
-      <c r="B62" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" t="s">
-        <v>257</v>
-      </c>
-      <c r="C63" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" t="s">
-        <v>260</v>
-      </c>
-      <c r="C66" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="C112" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>142</v>
       </c>
-      <c r="B72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B113" t="s">
         <v>143</v>
       </c>
-      <c r="B73" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="C113" t="s">
         <v>144</v>
       </c>
-      <c r="B74" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" t="s">
-        <v>187</v>
-      </c>
-      <c r="C75" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" t="s">
-        <v>178</v>
-      </c>
-      <c r="C78" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" t="s">
-        <v>245</v>
-      </c>
-      <c r="C79" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" t="s">
-        <v>244</v>
-      </c>
-      <c r="C80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" t="s">
-        <v>243</v>
-      </c>
-      <c r="C81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>171</v>
-      </c>
-      <c r="B82" t="s">
-        <v>242</v>
-      </c>
-      <c r="C82" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B84" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>183</v>
-      </c>
-      <c r="B87" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>188</v>
-      </c>
-      <c r="B88" t="s">
-        <v>189</v>
-      </c>
-      <c r="C88" t="s">
-        <v>190</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2855,18 +3399,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A153F602-4523-4BE8-B1FF-29BC7BE3DF9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBCEA50-9F8E-445F-8351-E21F5791CC1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/static/csv/for_participant.xlsx
+++ b/app/static/csv/for_participant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="337">
   <si>
     <t>tag</t>
   </si>
@@ -46,10 +46,10 @@
     <t>li2</t>
   </si>
   <si>
-    <t>Step 2. Install the &lt;a href=/about_app&gt;App&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Stap 2. Installeer de &lt;a href=/about_app&gt;App&lt;/a&gt;</t>
+    <t>Step 2. Install the app via the &lt;a href=/about_app&gt;Google Play Store&lt;/a&gt; or  &lt;a href=/about_app_apple&gt;Apple App Store&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Stap 2. Installeer de app via  &lt;a href=/about_app&gt;Google Play Store&lt;/a&gt; of &lt;a href=/about_app_apple&gt;Apple App Store&lt;/a&gt;</t>
   </si>
   <si>
     <t>li3</t>
@@ -691,7 +691,7 @@
     <t>li_data_2</t>
   </si>
   <si>
-    <t xml:space="preserve">The University of Leiden and IBM cloud or similar. All the email correspondences and email addresses stored in agestudy@fsw.leidenuniv.nl will be deleted at the end of the study period. </t>
+    <t xml:space="preserve">Psytoolkit.org, Strasbourg (Online tests). The coded online testing data will be temporarily stored on the research server administered by Psytoolkit.org (Strasbourg) and stored within the UK/EU until it is downloaded in Leiden. The server is managed by Prof. Sijsbert Stoet. The data on the Psytoolkit server will be disconnected from any demographic information or email. After data collection is completed the data will be deleted from this server and according to Psytoolkit, the deletion will take 24 hours to impact their servers as well. Therefore, the long-term data will be stored at Leiden and released from Leiden. </t>
   </si>
   <si>
     <t xml:space="preserve">Psytoolkit.org, Straatsburg (Online tests). De gecodeerde gegevens van online tests worden tijdelijk opgeslagen op de onderzoeksserver beheerd door Psytoolkit.org (Straatsburg) en opgeslagen binnen het VK/EU totdat ze in Leiden worden gedownload. De server wordt beheerd door prof. Sijsbert Stoet. De gegevens op de Psytoolkit-server worden losgekoppeld van alle demografische informatie of e-mail. Na voltooiing van de gegevensverzameling worden de gegevens van deze server verwijderd en volgens Psytoolkit duurt het 24 uur voordat deze verwijdering van invloed is op hun servers. Daarom worden de langetermijngegevens opgeslagen in Leiden en vanuit Leiden vrijgegeven.     </t>
@@ -700,10 +700,10 @@
     <t>li_data_3</t>
   </si>
   <si>
-    <t>Leiden University and IBM cloud. The email address for signing up on the online tests is stored on the IBM cloud in the EU. All the email correspondence and email addresses stored in agestudy@fsw.leidenuniv.nl will be deleted at the end of the study period. Moreover, at the end of the study period the email address stored in the IBM cloud will also be deleted . All your data and the corresponding analysis will be reported to the public in anonymized form. When deposited anonymously in a public platform your data may be further processed by the scientific community to discover new patterns of behavior or new brain-behavior relationships and age effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universiteit Leiden en IBM-cloud of vergelijkbaar. Alle e-mailcorrespondentie en e-mailadressen opgeslagen in agestudy@fsw.leidenuniv.nl worden verwijderd aan het einde van de onderzoeksperiode. Bovendien wordt het e-mailadres opgeslagen in de cloud (gelegen in de EU en losgekoppeld van de database die wordt gebruikt voor het verwerken van smartphonegegevens via Quantactions) tijdens de aanmelding op het online testplatform ook verwijderd aan het einde van de onderzoeksperiode.  </t>
+    <t>Leiden University and Microsoft Azure. The email address for signing up on the online tests is stored on  Microsoft Azure cloud services in the EU. All the email correspondence and email addresses stored in agestudy@fsw.leidenuniv.nl will be deleted at the end of the study period. Moreover, at the end of the study period the email address stored in Azure will also be deleted . All your data and the corresponding analysis will be reported to the public in anonymized form. When deposited anonymously in a public platform your data may be further processed by the scientific community to discover new patterns of behavior or new brain-behavior relationships and age effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universiteit Leiden enMicrosoft  Azure of vergelijkbaar. Alle e-mailcorrespondentie en e-mailadressen opgeslagen in agestudy@fsw.leidenuniv.nl worden verwijderd aan het einde van de onderzoeksperiode. Bovendien wordt het e-mailadres opgeslagen in de Microsoft Azure cloud (gelegen in de EU en losgekoppeld van de database die wordt gebruikt voor het verwerken van smartphonegegevens via Quantactions) tijdens de aanmelding op het online testplatform ook verwijderd aan het einde van de onderzoeksperiode.  </t>
   </si>
   <si>
     <t>p19b</t>
@@ -727,10 +727,10 @@
     <t>h24</t>
   </si>
   <si>
-    <t>Compensation</t>
-  </si>
-  <si>
-    <t>Vergoeding</t>
+    <t>Compensation (Unfortunately we are unable to accept participation for compensation at this time)</t>
+  </si>
+  <si>
+    <t>Vergoeding (Helaas kunnen wij op dit moment geen deelname tegen vergoeding meer accepteren)</t>
   </si>
   <si>
     <t>p21_u</t>
@@ -965,6 +965,15 @@
   </si>
   <si>
     <t xml:space="preserve">Voor meer informatie over gegevensprivacy en uw rechten, raadpleegt u alstublieft de wetgeving inzake gegevensbescherming van de Europese Unie, bekend als de Algemene Verordening Gegevensbescherming (“AVG”). </t>
+  </si>
+  <si>
+    <t>p27c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Your withdrawal from the study can only be executed once you install the App from your phone. If you wish to continue using the App after withdrawal, uninstall and reinstall again.  </t>
+  </si>
+  <si>
+    <t>LET OP: Je uitschrijving uit de studie kan alleen worden uitgevoerd nadat je de app op je telefoon hebt geïnstalleerd. Als je na uitschrijving wilt doorgaan met het gebruik van de app, deïnstalleer deze dan en installeer hem opnieuw.</t>
   </si>
   <si>
     <t>h27</t>
@@ -1047,7 +1056,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,12 +1074,6 @@
       <sz val="10"/>
       <color rgb="FF3d3c40"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1120,8 +1123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -1134,20 +1140,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1454,25 +1460,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="255.57642857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="255.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="255.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="255.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1480,10 +1486,10 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1491,10 +1497,10 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1502,10 +1508,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1513,10 +1519,10 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1524,10 +1530,10 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1535,10 +1541,10 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1546,10 +1552,10 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1557,10 +1563,10 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1568,10 +1574,10 @@
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1579,32 +1585,32 @@
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A12" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="5">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A13" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="5">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1612,10 +1618,10 @@
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1623,10 +1629,10 @@
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1634,11 +1640,11 @@
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="57" customFormat="1" s="4">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="57" customFormat="1" s="5">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1652,10 +1658,10 @@
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1663,10 +1669,10 @@
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1674,10 +1680,10 @@
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1685,10 +1691,10 @@
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1696,10 +1702,10 @@
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1707,10 +1713,10 @@
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1718,10 +1724,10 @@
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1729,10 +1735,10 @@
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1740,18 +1746,18 @@
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A27" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1762,18 +1768,18 @@
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A29" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1784,18 +1790,18 @@
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A31" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -1806,29 +1812,29 @@
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A33" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A34" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -1839,18 +1845,18 @@
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A36" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A36" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -1861,18 +1867,18 @@
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A38" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A38" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -1883,10 +1889,10 @@
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1894,10 +1900,10 @@
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1905,10 +1911,10 @@
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1916,10 +1922,10 @@
       <c r="A42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1927,10 +1933,10 @@
       <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1938,10 +1944,10 @@
       <c r="A44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1949,10 +1955,10 @@
       <c r="A45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1960,10 +1966,10 @@
       <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1971,10 +1977,10 @@
       <c r="A47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1982,10 +1988,10 @@
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1993,10 +1999,10 @@
       <c r="A49" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2004,10 +2010,10 @@
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2015,10 +2021,10 @@
       <c r="A51" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2026,10 +2032,10 @@
       <c r="A52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2037,10 +2043,10 @@
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2048,10 +2054,10 @@
       <c r="A54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2059,10 +2065,10 @@
       <c r="A55" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2070,10 +2076,10 @@
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2081,10 +2087,10 @@
       <c r="A57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2092,10 +2098,10 @@
       <c r="A58" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2103,10 +2109,10 @@
       <c r="A59" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2114,10 +2120,10 @@
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2125,10 +2131,10 @@
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2136,10 +2142,10 @@
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2147,10 +2153,10 @@
       <c r="A63" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2158,10 +2164,10 @@
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2169,10 +2175,10 @@
       <c r="A65" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2180,10 +2186,10 @@
       <c r="A66" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2191,10 +2197,10 @@
       <c r="A67" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2202,10 +2208,10 @@
       <c r="A68" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2213,21 +2219,21 @@
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A70" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A70" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2235,10 +2241,10 @@
       <c r="A71" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2246,10 +2252,10 @@
       <c r="A72" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2257,10 +2263,10 @@
       <c r="A73" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2268,18 +2274,18 @@
       <c r="A74" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A75" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A75" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>218</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -2290,10 +2296,10 @@
       <c r="A76" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2301,10 +2307,10 @@
       <c r="A77" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2312,10 +2318,10 @@
       <c r="A78" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2323,10 +2329,10 @@
       <c r="A79" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2337,7 +2343,7 @@
       <c r="B80" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2345,10 +2351,10 @@
       <c r="A81" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2356,10 +2362,10 @@
       <c r="A82" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2367,10 +2373,10 @@
       <c r="A83" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2378,10 +2384,10 @@
       <c r="A84" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2389,10 +2395,10 @@
       <c r="A85" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2400,21 +2406,21 @@
       <c r="A86" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="21.75">
       <c r="A87" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2422,10 +2428,10 @@
       <c r="A88" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2433,10 +2439,10 @@
       <c r="A89" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -2444,10 +2450,10 @@
       <c r="A90" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -2455,10 +2461,10 @@
       <c r="A91" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2466,10 +2472,10 @@
       <c r="A92" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2477,10 +2483,10 @@
       <c r="A93" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2488,10 +2494,10 @@
       <c r="A94" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2499,10 +2505,10 @@
       <c r="A95" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2510,10 +2516,10 @@
       <c r="A96" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2521,10 +2527,10 @@
       <c r="A97" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2532,10 +2538,10 @@
       <c r="A98" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -2543,10 +2549,10 @@
       <c r="A99" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2554,10 +2560,10 @@
       <c r="A100" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2565,10 +2571,10 @@
       <c r="A101" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2576,10 +2582,10 @@
       <c r="A102" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2587,10 +2593,10 @@
       <c r="A103" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2598,10 +2604,10 @@
       <c r="A104" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2609,10 +2615,10 @@
       <c r="A105" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -2620,10 +2626,10 @@
       <c r="A106" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -2631,10 +2637,10 @@
       <c r="A107" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2642,10 +2648,10 @@
       <c r="A108" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>318</v>
       </c>
     </row>
@@ -2653,10 +2659,10 @@
       <c r="A109" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2664,10 +2670,10 @@
       <c r="A110" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2675,10 +2681,10 @@
       <c r="A111" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2686,10 +2692,10 @@
       <c r="A112" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2697,11 +2703,22 @@
       <c r="A113" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
